--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="liked" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>Security_Code</t>
   </si>
@@ -194,9 +194,6 @@
     <t>PE</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t xml:space="preserve"> stovec-industries-ltd</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>Red flags</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
   </si>
 </sst>
 </file>
@@ -284,12 +287,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,197 +603,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>519457</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>124.18</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.06</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>10.17</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>6.01</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1.21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>526263</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>149.08000000000001</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>27.26</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>21.72</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>20.11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>536264</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>155.41999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>25.76</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>19.579999999999998</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>24.44</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>530843</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>272.43</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.09</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>44.33</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>31.85</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>11.54</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>523828</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>281.60000000000002</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.39</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>32.049999999999997</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>27.05</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>24.13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>532801</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>285.04000000000002</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -792,83 +822,92 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
         <v>1.6</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>519602</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>592.22</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>13.04</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>10.86</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>1.47</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>523660</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>637.73</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.12</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>28.53</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>19.89</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>8.02</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>532890</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>2394.14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -876,345 +915,384 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.11</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>533088</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>3491.31</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.01</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>17.23</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>10.81</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>20.43</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>506685</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>272.26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>28.15</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>18.829999999999998</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>10.08</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
         <v>531489</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>19.23</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>0.01</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>15.67</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>11.5</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>3.18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>506943</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>2550.96</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>0.1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>14.78</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>11.17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>22.75</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
         <v>504067</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>4384.41</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>32.979999999999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>23.76</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>60.14</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>500233</v>
       </c>
-      <c r="B16" s="2">
+      <c r="C16" s="2">
         <v>6922.94</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="2">
         <v>0.11</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>31.81</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>23.31</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>36</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>500163</v>
       </c>
-      <c r="B17" s="2">
+      <c r="C17" s="2">
         <v>3678.31</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>0.16</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>19.37</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>14.16</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>69.239999999999995</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>531161</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>277.33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>30.75</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>20.260000000000002</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>26.5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>534312</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>576.21</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>0.04</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>33.119999999999997</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>22.13</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>11.2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>526161</v>
       </c>
-      <c r="B20" s="2">
+      <c r="C20" s="2">
         <v>34.090000000000003</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>0.17</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>11.51</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>6.62</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>15.15</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>531744</v>
       </c>
-      <c r="B21" s="2">
+      <c r="C21" s="2">
         <v>72.7</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>0.27</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>12.19</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>8.57</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>4.2300000000000004</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>506879</v>
       </c>
-      <c r="B22" s="2">
+      <c r="C22" s="2">
         <v>95.53</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>111.26</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>-584.96</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>4.33</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
         <v>516064</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C23" s="2">
         <v>762.86</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1222,343 +1300,382 @@
       <c r="E23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
         <v>7.75</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
         <v>500123</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C24" s="2">
         <v>1138.81</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>33.33</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F24" s="2">
         <v>23.3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>53.17</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>533217</v>
       </c>
-      <c r="B25" s="2">
+      <c r="C25" s="2">
         <v>2098.33</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>0.13</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>23.72</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F25" s="2">
         <v>19.059999999999999</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>22.68</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
         <v>506076</v>
       </c>
-      <c r="B26" s="2">
+      <c r="C26" s="2">
         <v>4495.51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>24.32</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F26" s="2">
         <v>16.46</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>29.82</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
         <v>533206</v>
       </c>
-      <c r="B27" s="2">
+      <c r="C27" s="2">
         <v>11623.92</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D27" s="2">
         <v>0.24</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>17.73</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>16.43</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>5.9</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
         <v>532321</v>
       </c>
-      <c r="B28" s="2">
+      <c r="C28" s="2">
         <v>44072.12</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D28" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>26.04</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>28.08</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>74.930000000000007</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
         <v>500124</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C29" s="2">
         <v>73881.03</v>
       </c>
-      <c r="C29" s="2">
+      <c r="D29" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>15.43</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>15.79</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>140.34</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>531236</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>13.18</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>0.39</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>13.93</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>11.87</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>10.74</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>526299</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>8786.19</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>0.03</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>17.66</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <v>13.65</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>28.96</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
         <v>514266</v>
       </c>
-      <c r="B32" s="2">
+      <c r="C32" s="2">
         <v>42.87</v>
       </c>
-      <c r="C32" s="2">
+      <c r="D32" s="2">
         <v>0.01</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>25.1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>17.670000000000002</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>15.83</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
         <v>524828</v>
       </c>
-      <c r="B33" s="2">
+      <c r="C33" s="2">
         <v>47.21</v>
       </c>
-      <c r="C33" s="2">
+      <c r="D33" s="2">
         <v>0.39</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>13.56</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>11.34</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>6.61</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
         <v>522029</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C34" s="1">
         <v>218.5</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>0.43</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>16.690000000000001</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <v>13.25</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>2.15</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
         <v>507488</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="1">
         <v>612.6</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>0.21</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>21.01</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>14.76</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>30.12</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
         <v>532927</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="1">
         <v>5649.96</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -1566,493 +1683,550 @@
       <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="1">
         <v>87.9</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
         <v>532531</v>
       </c>
-      <c r="B37" s="2">
+      <c r="C37" s="2">
         <v>7894.43</v>
       </c>
-      <c r="C37" s="2">
+      <c r="D37" s="2">
         <v>0.22</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>10.26</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>36.1</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>22.46</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
         <v>524774</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>153.21</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>0.34</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>27.73</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>25.38</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>23.73</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
         <v>538595</v>
       </c>
-      <c r="B39" s="2">
+      <c r="C39" s="2">
         <v>171.92</v>
       </c>
-      <c r="C39" s="2">
+      <c r="D39" s="2">
         <v>0.31</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>16.010000000000002</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>11.12</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>55.63</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
         <v>522295</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="1">
         <v>389.1</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>0.08</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>24.23</v>
       </c>
-      <c r="E40" s="1">
+      <c r="F40" s="1">
         <v>18.95</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>27.7</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
         <v>505710</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <v>537.29</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>0.23</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>22.14</v>
       </c>
-      <c r="E41" s="1">
+      <c r="F41" s="1">
         <v>15.04</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>3.26</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
         <v>531633</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>275.49</v>
       </c>
-      <c r="C42" s="2">
+      <c r="D42" s="2">
         <v>0.43</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>16</v>
       </c>
-      <c r="E42" s="2">
+      <c r="F42" s="2">
         <v>13.26</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>14.17</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
         <v>590031</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <v>130.93</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>15.34</v>
       </c>
-      <c r="E43" s="1">
+      <c r="F43" s="1">
         <v>10.83</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
         <v>500674</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C44" s="1">
         <v>10471.280000000001</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>20.67</v>
       </c>
-      <c r="E44" s="1">
+      <c r="F44" s="1">
         <v>17.78</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>147.13999999999999</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
         <v>538964</v>
       </c>
-      <c r="B45" s="2">
+      <c r="C45" s="2">
         <v>51.98</v>
       </c>
-      <c r="C45" s="2">
+      <c r="D45" s="2">
         <v>0.32</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>23.81</v>
       </c>
-      <c r="E45" s="2">
+      <c r="F45" s="2">
         <v>18.260000000000002</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>48.17</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
         <v>524654</v>
       </c>
-      <c r="B46" s="1">
+      <c r="C46" s="1">
         <v>71.56</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>0.12</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>15.41</v>
       </c>
-      <c r="E46" s="1">
+      <c r="F46" s="1">
         <v>12.05</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>21.59</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
         <v>530843</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C47" s="1">
         <v>302.88</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>0.09</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>44.33</v>
       </c>
-      <c r="E47" s="1">
+      <c r="F47" s="1">
         <v>31.85</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>11.54</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
         <v>526001</v>
       </c>
-      <c r="B48" s="2">
+      <c r="C48" s="2">
         <v>11.56</v>
       </c>
-      <c r="C48" s="2">
+      <c r="D48" s="2">
         <v>0.11</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>24.18</v>
       </c>
-      <c r="E48" s="2">
+      <c r="F48" s="2">
         <v>27.62</v>
       </c>
-      <c r="F48" s="2">
+      <c r="G48" s="2">
         <v>5.76</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
         <v>590043</v>
       </c>
-      <c r="B49" s="2">
+      <c r="C49" s="2">
         <v>125.32</v>
       </c>
-      <c r="C49" s="2">
+      <c r="D49" s="2">
         <v>0.5</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>17.73</v>
       </c>
-      <c r="E49" s="2">
+      <c r="F49" s="2">
         <v>14.65</v>
       </c>
-      <c r="F49" s="2">
+      <c r="G49" s="2">
         <v>13.5</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
         <v>538922</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C50" s="1">
         <v>19.690000000000001</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>0.2</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>12.63</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>17.95</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>3.61</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>504959</v>
+      </c>
+      <c r="C51" s="1">
+        <v>405.08</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1">
+        <v>28.77</v>
+      </c>
+      <c r="F51" s="1">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="G51" s="1">
+        <v>76.88</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>517080</v>
+      </c>
+      <c r="C52" s="1">
+        <v>867.75</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="1">
+        <v>23.87</v>
+      </c>
+      <c r="F52" s="1">
+        <v>15.41</v>
+      </c>
+      <c r="G52" s="1">
+        <v>16.27</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>504959</v>
-      </c>
-      <c r="B51" s="1">
-        <v>405.08</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="1">
-        <v>28.77</v>
-      </c>
-      <c r="E51" s="1">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="F51" s="1">
-        <v>76.88</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>517080</v>
-      </c>
-      <c r="B52" s="1">
-        <v>867.75</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D52" s="1">
-        <v>23.87</v>
-      </c>
-      <c r="E52" s="1">
-        <v>15.41</v>
-      </c>
-      <c r="F52" s="1">
-        <v>16.27</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
         <v>526821</v>
       </c>
-      <c r="B53" s="1">
+      <c r="C53" s="1">
         <v>406.61</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>0.01</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>13.34</v>
       </c>
-      <c r="E53" s="1">
+      <c r="F53" s="1">
         <v>17.079999999999998</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>11.33</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
         <v>531726</v>
       </c>
-      <c r="B54" s="1">
+      <c r="C54" s="1">
         <v>39.950000000000003</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>0.34</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>13.87</v>
       </c>
-      <c r="E54" s="1">
+      <c r="F54" s="1">
         <v>10.26</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>9.57</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2063,8 +2237,9 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2075,8 +2250,9 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2087,8 +2263,9 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2099,8 +2276,9 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2111,8 +2289,9 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2123,8 +2302,9 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2135,8 +2315,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2147,8 +2328,9 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2159,8 +2341,9 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2171,8 +2354,9 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2183,8 +2367,9 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2195,8 +2380,9 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2207,8 +2393,9 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2219,8 +2406,9 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2231,8 +2419,9 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2243,8 +2432,9 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2255,8 +2445,9 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2267,8 +2458,9 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2279,8 +2471,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2291,8 +2484,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2303,8 +2497,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2315,8 +2510,9 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2327,8 +2523,9 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2339,8 +2536,9 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2351,8 +2549,9 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2363,8 +2562,9 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2375,8 +2575,9 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2387,8 +2588,9 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2399,8 +2601,9 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2411,8 +2614,9 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2423,8 +2627,9 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2435,8 +2640,9 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2447,8 +2653,9 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2459,8 +2666,9 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2471,8 +2679,9 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2483,8 +2692,9 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2495,8 +2705,9 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2507,8 +2718,9 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2519,8 +2731,9 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2531,8 +2744,9 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2543,8 +2757,9 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2555,8 +2770,9 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2567,8 +2783,9 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2579,8 +2796,9 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2591,8 +2809,9 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2603,8 +2822,9 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2615,8 +2835,9 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2627,8 +2848,9 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2639,8 +2861,9 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2651,8 +2874,9 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2663,8 +2887,9 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2675,8 +2900,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2687,8 +2913,9 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2699,8 +2926,9 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2711,8 +2939,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2723,8 +2952,9 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2735,8 +2965,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2747,8 +2978,9 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2759,8 +2991,9 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2771,8 +3004,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2783,8 +3017,9 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2795,8 +3030,9 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2807,8 +3043,9 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2819,8 +3056,9 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -2831,8 +3069,9 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2843,8 +3082,9 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2855,8 +3095,9 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2867,8 +3108,9 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2879,8 +3121,9 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2891,8 +3134,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2903,8 +3147,9 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2915,8 +3160,9 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -2927,8 +3173,9 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2939,8 +3186,9 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2951,8 +3199,9 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2963,8 +3212,9 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2975,8 +3225,9 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2987,8 +3238,9 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2999,8 +3251,9 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3011,8 +3264,9 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3023,8 +3277,9 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3035,8 +3290,9 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3047,8 +3303,9 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3059,8 +3316,9 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3071,8 +3329,9 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3083,8 +3342,9 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3095,8 +3355,9 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3107,8 +3368,9 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3119,8 +3381,9 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3131,8 +3394,9 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3143,8 +3407,9 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3155,8 +3420,9 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3167,8 +3433,9 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3179,8 +3446,9 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3191,8 +3459,9 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3203,8 +3472,9 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3215,8 +3485,9 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3227,8 +3498,9 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3239,8 +3511,9 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3251,8 +3524,9 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3263,8 +3537,9 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3275,8 +3550,9 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3287,8 +3563,9 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3299,8 +3576,9 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3311,8 +3589,9 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3323,8 +3602,9 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3335,8 +3615,9 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -3347,8 +3628,9 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3359,8 +3641,9 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3371,8 +3654,9 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -3383,8 +3667,9 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -3395,8 +3680,9 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -3407,8 +3693,9 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -3419,8 +3706,9 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -3431,8 +3719,9 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -3443,8 +3732,9 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -3455,8 +3745,9 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -3467,6 +3758,7 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3475,1325 +3767,462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="22" width="7" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="27" width="7" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="30" width="7" customWidth="1"/>
+    <col min="31" max="31" width="6" customWidth="1"/>
+    <col min="32" max="36" width="7" customWidth="1"/>
+    <col min="37" max="37" width="6" customWidth="1"/>
+    <col min="38" max="40" width="7" customWidth="1"/>
+    <col min="41" max="52" width="8" customWidth="1"/>
+    <col min="53" max="56" width="9" customWidth="1"/>
+    <col min="57" max="57" width="7.28515625" customWidth="1"/>
+    <col min="58" max="58" width="11.28515625" customWidth="1"/>
+    <col min="59" max="59" width="10.42578125" customWidth="1"/>
+    <col min="60" max="60" width="7.85546875" customWidth="1"/>
+    <col min="61" max="61" width="10.42578125" customWidth="1"/>
+    <col min="62" max="62" width="7.85546875" customWidth="1"/>
+    <col min="63" max="63" width="10.42578125" customWidth="1"/>
+    <col min="64" max="64" width="7.85546875" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" customWidth="1"/>
+    <col min="66" max="66" width="7.85546875" customWidth="1"/>
+    <col min="67" max="67" width="10.42578125" customWidth="1"/>
+    <col min="68" max="68" width="7.85546875" customWidth="1"/>
+    <col min="69" max="69" width="10.42578125" customWidth="1"/>
+    <col min="70" max="70" width="7.85546875" customWidth="1"/>
+    <col min="71" max="71" width="10.42578125" customWidth="1"/>
+    <col min="72" max="72" width="7.85546875" customWidth="1"/>
+    <col min="73" max="73" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="7.85546875" customWidth="1"/>
+    <col min="75" max="75" width="10.42578125" customWidth="1"/>
+    <col min="76" max="76" width="7.85546875" customWidth="1"/>
+    <col min="77" max="77" width="10.42578125" customWidth="1"/>
+    <col min="78" max="78" width="7.85546875" customWidth="1"/>
+    <col min="79" max="79" width="10.42578125" customWidth="1"/>
+    <col min="80" max="80" width="6.85546875" customWidth="1"/>
+    <col min="81" max="81" width="9.42578125" customWidth="1"/>
+    <col min="82" max="82" width="7.85546875" customWidth="1"/>
+    <col min="83" max="83" width="10.42578125" customWidth="1"/>
+    <col min="84" max="84" width="7.85546875" customWidth="1"/>
+    <col min="85" max="85" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="7.85546875" customWidth="1"/>
+    <col min="87" max="87" width="10.42578125" customWidth="1"/>
+    <col min="88" max="88" width="7.85546875" customWidth="1"/>
+    <col min="89" max="89" width="10.42578125" customWidth="1"/>
+    <col min="90" max="90" width="7.85546875" customWidth="1"/>
+    <col min="91" max="91" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="7.85546875" customWidth="1"/>
+    <col min="93" max="93" width="10.42578125" customWidth="1"/>
+    <col min="94" max="94" width="7.85546875" customWidth="1"/>
+    <col min="95" max="95" width="10.42578125" customWidth="1"/>
+    <col min="96" max="96" width="6.85546875" customWidth="1"/>
+    <col min="97" max="97" width="9.42578125" customWidth="1"/>
+    <col min="98" max="98" width="5" customWidth="1"/>
+    <col min="99" max="99" width="4" customWidth="1"/>
+    <col min="100" max="101" width="5" customWidth="1"/>
+    <col min="102" max="102" width="7.7109375" customWidth="1"/>
+    <col min="103" max="103" width="9.140625" customWidth="1"/>
+    <col min="104" max="104" width="12.140625" customWidth="1"/>
+    <col min="105" max="105" width="11.28515625" customWidth="1"/>
+    <col min="106" max="106" width="10.42578125" customWidth="1"/>
+    <col min="107" max="107" width="7.85546875" customWidth="1"/>
+    <col min="108" max="108" width="9.42578125" customWidth="1"/>
+    <col min="109" max="109" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="7.85546875" customWidth="1"/>
+    <col min="111" max="111" width="9.42578125" customWidth="1"/>
+    <col min="112" max="112" width="10.42578125" customWidth="1"/>
+    <col min="113" max="113" width="7.85546875" customWidth="1"/>
+    <col min="114" max="115" width="10.42578125" customWidth="1"/>
+    <col min="116" max="116" width="7.85546875" customWidth="1"/>
+    <col min="117" max="117" width="9.42578125" customWidth="1"/>
+    <col min="118" max="118" width="10.42578125" customWidth="1"/>
+    <col min="119" max="119" width="7.85546875" customWidth="1"/>
+    <col min="120" max="120" width="10.42578125" customWidth="1"/>
+    <col min="121" max="121" width="9.42578125" customWidth="1"/>
+    <col min="122" max="123" width="7.85546875" customWidth="1"/>
+    <col min="124" max="124" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="7.85546875" customWidth="1"/>
+    <col min="126" max="127" width="10.42578125" customWidth="1"/>
+    <col min="128" max="128" width="7.85546875" customWidth="1"/>
+    <col min="129" max="129" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.42578125" customWidth="1"/>
+    <col min="131" max="131" width="7.85546875" customWidth="1"/>
+    <col min="132" max="132" width="10.42578125" customWidth="1"/>
+    <col min="133" max="133" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="7.85546875" customWidth="1"/>
+    <col min="135" max="135" width="9.42578125" customWidth="1"/>
+    <col min="136" max="136" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="7.85546875" customWidth="1"/>
+    <col min="138" max="138" width="10.42578125" customWidth="1"/>
+    <col min="139" max="139" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="7.85546875" customWidth="1"/>
+    <col min="141" max="141" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="10.42578125" customWidth="1"/>
+    <col min="143" max="143" width="7.85546875" customWidth="1"/>
+    <col min="144" max="144" width="10.42578125" customWidth="1"/>
+    <col min="145" max="145" width="9.42578125" customWidth="1"/>
+    <col min="146" max="146" width="6.85546875" customWidth="1"/>
+    <col min="147" max="147" width="9.42578125" customWidth="1"/>
+    <col min="148" max="148" width="5.85546875" customWidth="1"/>
+    <col min="149" max="149" width="8.42578125" customWidth="1"/>
+    <col min="150" max="150" width="6.85546875" customWidth="1"/>
+    <col min="151" max="151" width="9.42578125" customWidth="1"/>
+    <col min="152" max="152" width="6.85546875" customWidth="1"/>
+    <col min="153" max="153" width="9.42578125" customWidth="1"/>
+    <col min="154" max="154" width="7.7109375" customWidth="1"/>
+    <col min="155" max="155" width="9.140625" customWidth="1"/>
+    <col min="156" max="157" width="12.140625" customWidth="1"/>
+    <col min="158" max="158" width="11.28515625" customWidth="1"/>
+    <col min="159" max="159" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="10.42578125" customWidth="1"/>
+    <col min="161" max="161" width="9.42578125" customWidth="1"/>
+    <col min="162" max="162" width="7.85546875" customWidth="1"/>
+    <col min="163" max="163" width="10.42578125" customWidth="1"/>
+    <col min="164" max="164" width="7.85546875" customWidth="1"/>
+    <col min="165" max="165" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="7.85546875" customWidth="1"/>
+    <col min="167" max="168" width="10.42578125" customWidth="1"/>
+    <col min="169" max="169" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="7.85546875" customWidth="1"/>
+    <col min="171" max="171" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="172" max="173" width="10.42578125" customWidth="1"/>
+    <col min="174" max="174" width="7.85546875" customWidth="1"/>
+    <col min="175" max="176" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="10.42578125" customWidth="1"/>
+    <col min="178" max="178" width="7.85546875" customWidth="1"/>
+    <col min="179" max="179" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="7.85546875" customWidth="1"/>
+    <col min="183" max="183" width="10.42578125" customWidth="1"/>
+    <col min="184" max="184" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="10.42578125" customWidth="1"/>
+    <col min="186" max="186" width="7.85546875" customWidth="1"/>
+    <col min="187" max="188" width="10.42578125" customWidth="1"/>
+    <col min="189" max="189" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="7.85546875" customWidth="1"/>
+    <col min="191" max="192" width="10.42578125" customWidth="1"/>
+    <col min="193" max="193" width="9.42578125" customWidth="1"/>
+    <col min="194" max="194" width="6.85546875" customWidth="1"/>
+    <col min="195" max="195" width="7.7109375" customWidth="1"/>
+    <col min="196" max="196" width="9.42578125" customWidth="1"/>
+    <col min="197" max="197" width="5.85546875" customWidth="1"/>
+    <col min="198" max="198" width="7.7109375" customWidth="1"/>
+    <col min="199" max="199" width="8.42578125" customWidth="1"/>
+    <col min="200" max="200" width="6.85546875" customWidth="1"/>
+    <col min="201" max="201" width="7.7109375" customWidth="1"/>
+    <col min="202" max="202" width="9.42578125" customWidth="1"/>
+    <col min="203" max="203" width="6.85546875" customWidth="1"/>
+    <col min="204" max="204" width="7.7109375" customWidth="1"/>
+    <col min="205" max="205" width="9.42578125" customWidth="1"/>
+    <col min="206" max="206" width="7.7109375" customWidth="1"/>
+    <col min="207" max="207" width="9.140625" customWidth="1"/>
+    <col min="208" max="210" width="12.140625" customWidth="1"/>
+    <col min="211" max="211" width="11.28515625" customWidth="1"/>
+    <col min="212" max="212" width="8.85546875" customWidth="1"/>
+    <col min="213" max="213" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="214" max="216" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="217" max="217" width="7.85546875" customWidth="1"/>
+    <col min="218" max="221" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="222" max="222" width="7.85546875" customWidth="1"/>
+    <col min="223" max="224" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="226" max="226" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="227" max="227" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="228" max="228" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="229" max="231" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="232" max="232" width="8.85546875" customWidth="1"/>
+    <col min="233" max="233" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="8.85546875" customWidth="1"/>
+    <col min="235" max="235" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="236" max="238" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="241" max="242" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="244" max="244" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="246" max="246" width="7.7109375" customWidth="1"/>
+    <col min="247" max="247" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="248" max="248" width="8.85546875" customWidth="1"/>
+    <col min="249" max="249" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="250" max="250" width="7.7109375" customWidth="1"/>
+    <col min="251" max="251" width="8.42578125" customWidth="1"/>
+    <col min="252" max="252" width="8.85546875" customWidth="1"/>
+    <col min="253" max="253" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="254" max="254" width="7.7109375" customWidth="1"/>
+    <col min="255" max="255" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="7.7109375" customWidth="1"/>
+    <col min="259" max="259" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.7109375" customWidth="1"/>
+    <col min="262" max="265" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>526001</v>
-      </c>
-      <c r="B2" s="2">
-        <v>11.56</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>24.18</v>
-      </c>
-      <c r="E2" s="2">
-        <v>27.62</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5.76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>531236</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13.18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13.93</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11.87</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10.74</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>531489</v>
-      </c>
-      <c r="B4" s="2">
-        <v>19.23</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15.67</v>
-      </c>
-      <c r="E4" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>526161</v>
-      </c>
-      <c r="B5" s="2">
-        <v>34.090000000000003</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="D5" s="2">
-        <v>11.51</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6.62</v>
-      </c>
-      <c r="F5" s="2">
-        <v>15.15</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>514266</v>
-      </c>
-      <c r="B6" s="2">
-        <v>42.87</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="2">
-        <v>25.1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="F6" s="2">
-        <v>15.83</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>524828</v>
-      </c>
-      <c r="B7" s="2">
-        <v>47.21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="D7" s="2">
-        <v>13.56</v>
-      </c>
-      <c r="E7" s="2">
-        <v>11.34</v>
-      </c>
-      <c r="F7" s="2">
-        <v>6.61</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>538964</v>
-      </c>
-      <c r="B8" s="2">
-        <v>51.98</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="D8" s="2">
-        <v>23.81</v>
-      </c>
-      <c r="E8" s="2">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>48.17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>524654</v>
-      </c>
-      <c r="B9" s="1">
-        <v>71.56</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>15.41</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12.05</v>
-      </c>
-      <c r="F9" s="1">
-        <v>21.59</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>531744</v>
-      </c>
-      <c r="B10" s="2">
-        <v>72.7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="D10" s="2">
-        <v>12.19</v>
-      </c>
-      <c r="E10" s="2">
-        <v>8.57</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>506879</v>
-      </c>
-      <c r="B11" s="2">
-        <v>95.53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <v>111.26</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-584.96</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4.33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>519457</v>
-      </c>
-      <c r="B12" s="1">
-        <v>124.18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10.17</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6.01</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.21</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>590043</v>
-      </c>
-      <c r="B13" s="2">
-        <v>125.32</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>17.73</v>
-      </c>
-      <c r="E13" s="2">
-        <v>14.65</v>
-      </c>
-      <c r="F13" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>590031</v>
-      </c>
-      <c r="B14" s="1">
-        <v>130.93</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>15.34</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10.83</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>526263</v>
-      </c>
-      <c r="B15" s="1">
-        <v>149.08000000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D15" s="1">
-        <v>27.26</v>
-      </c>
-      <c r="E15" s="1">
-        <v>21.72</v>
-      </c>
-      <c r="F15" s="1">
-        <v>20.11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>524774</v>
-      </c>
-      <c r="B16" s="1">
-        <v>153.21</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.34</v>
-      </c>
-      <c r="D16" s="1">
-        <v>27.73</v>
-      </c>
-      <c r="E16" s="1">
-        <v>25.38</v>
-      </c>
-      <c r="F16" s="1">
-        <v>23.73</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>536264</v>
-      </c>
-      <c r="B17" s="1">
-        <v>155.41999999999999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>25.76</v>
-      </c>
-      <c r="E17" s="1">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="F17" s="1">
-        <v>24.44</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>538595</v>
-      </c>
-      <c r="B18" s="1">
-        <v>201.49</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="D18" s="1">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="E18" s="1">
-        <v>11.12</v>
-      </c>
-      <c r="F18" s="1">
-        <v>55.63</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>522029</v>
-      </c>
-      <c r="B19" s="1">
-        <v>218.5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="D19" s="1">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>13.25</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.15</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>506685</v>
-      </c>
-      <c r="B20" s="2">
-        <v>272.26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <v>28.15</v>
-      </c>
-      <c r="E20" s="2">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="F20" s="2">
-        <v>10.08</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>530843</v>
-      </c>
-      <c r="B21" s="1">
-        <v>272.43</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44.33</v>
-      </c>
-      <c r="E21" s="1">
-        <v>31.85</v>
-      </c>
-      <c r="F21" s="1">
-        <v>11.54</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>531633</v>
-      </c>
-      <c r="B22" s="2">
-        <v>275.49</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D22" s="2">
-        <v>16</v>
-      </c>
-      <c r="E22" s="2">
-        <v>13.26</v>
-      </c>
-      <c r="F22" s="2">
-        <v>14.17</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>531161</v>
-      </c>
-      <c r="B23" s="1">
-        <v>277.33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1">
-        <v>30.75</v>
-      </c>
-      <c r="E23" s="1">
-        <v>20.260000000000002</v>
-      </c>
-      <c r="F23" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>523828</v>
-      </c>
-      <c r="B24" s="1">
-        <v>281.60000000000002</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="D24" s="1">
-        <v>32.049999999999997</v>
-      </c>
-      <c r="E24" s="1">
-        <v>27.05</v>
-      </c>
-      <c r="F24" s="1">
-        <v>24.13</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>532801</v>
-      </c>
-      <c r="B25" s="1">
-        <v>285.04000000000002</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>530843</v>
-      </c>
-      <c r="B26" s="1">
-        <v>302.88</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44.33</v>
-      </c>
-      <c r="E26" s="1">
-        <v>31.85</v>
-      </c>
-      <c r="F26" s="1">
-        <v>11.54</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>522295</v>
-      </c>
-      <c r="B27" s="1">
-        <v>389.1</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D27" s="1">
-        <v>24.23</v>
-      </c>
-      <c r="E27" s="1">
-        <v>18.95</v>
-      </c>
-      <c r="F27" s="1">
-        <v>27.7</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>505710</v>
-      </c>
-      <c r="B28" s="1">
-        <v>537.29</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="D28" s="1">
-        <v>22.14</v>
-      </c>
-      <c r="E28" s="1">
-        <v>15.04</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>534312</v>
-      </c>
-      <c r="B29" s="1">
-        <v>576.21</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="D29" s="1">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="E29" s="1">
-        <v>22.13</v>
-      </c>
-      <c r="F29" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>519602</v>
-      </c>
-      <c r="B30" s="1">
-        <v>592.22</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>13.04</v>
-      </c>
-      <c r="E30" s="1">
-        <v>10.86</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.47</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>507488</v>
-      </c>
-      <c r="B31" s="1">
-        <v>612.6</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="D31" s="1">
-        <v>21.01</v>
-      </c>
-      <c r="E31" s="1">
-        <v>14.76</v>
-      </c>
-      <c r="F31" s="1">
-        <v>30.12</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>523660</v>
-      </c>
-      <c r="B32" s="1">
-        <v>637.73</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="D32" s="1">
-        <v>28.53</v>
-      </c>
-      <c r="E32" s="1">
-        <v>19.89</v>
-      </c>
-      <c r="F32" s="1">
-        <v>8.02</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>516064</v>
-      </c>
-      <c r="B33" s="2">
-        <v>762.86</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="2">
-        <v>7.75</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>500123</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1138.81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2">
-        <v>33.33</v>
-      </c>
-      <c r="E34" s="2">
-        <v>23.3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>53.17</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>533217</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2098.33</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="D35" s="2">
-        <v>23.72</v>
-      </c>
-      <c r="E35" s="2">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="F35" s="2">
-        <v>22.68</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>532890</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2394.14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>506943</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2550.96</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>14.78</v>
-      </c>
-      <c r="E37" s="2">
-        <v>11.17</v>
-      </c>
-      <c r="F37" s="2">
-        <v>22.75</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>533088</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3491.31</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D38" s="1">
-        <v>17.23</v>
-      </c>
-      <c r="E38" s="1">
-        <v>10.81</v>
-      </c>
-      <c r="F38" s="1">
-        <v>20.43</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>500163</v>
-      </c>
-      <c r="B39" s="2">
-        <v>3678.31</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="D39" s="2">
-        <v>19.37</v>
-      </c>
-      <c r="E39" s="2">
-        <v>14.16</v>
-      </c>
-      <c r="F39" s="2">
-        <v>69.239999999999995</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>504067</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4384.41</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="E40" s="2">
-        <v>23.76</v>
-      </c>
-      <c r="F40" s="2">
-        <v>60.14</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>506076</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4495.51</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="2">
-        <v>24.32</v>
-      </c>
-      <c r="E41" s="2">
-        <v>16.46</v>
-      </c>
-      <c r="F41" s="2">
-        <v>29.82</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>532927</v>
-      </c>
-      <c r="B42" s="1">
-        <v>5649.96</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1">
-        <v>87.9</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>500233</v>
-      </c>
-      <c r="B43" s="2">
-        <v>6922.94</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="D43" s="2">
-        <v>31.81</v>
-      </c>
-      <c r="E43" s="2">
-        <v>23.31</v>
-      </c>
-      <c r="F43" s="2">
-        <v>36</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>532531</v>
-      </c>
-      <c r="B44" s="2">
-        <v>7894.43</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="D44" s="2">
-        <v>10.26</v>
-      </c>
-      <c r="E44" s="2">
-        <v>36.1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>22.46</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>526299</v>
-      </c>
-      <c r="B45" s="1">
-        <v>8786.19</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="D45" s="1">
-        <v>17.66</v>
-      </c>
-      <c r="E45" s="1">
-        <v>13.65</v>
-      </c>
-      <c r="F45" s="1">
-        <v>28.96</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>500674</v>
-      </c>
-      <c r="B46" s="1">
-        <v>10471.280000000001</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1">
-        <v>20.67</v>
-      </c>
-      <c r="E46" s="1">
-        <v>17.78</v>
-      </c>
-      <c r="F46" s="1">
-        <v>147.13999999999999</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>533206</v>
-      </c>
-      <c r="B47" s="2">
-        <v>11623.92</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D47" s="2">
-        <v>17.73</v>
-      </c>
-      <c r="E47" s="2">
-        <v>16.43</v>
-      </c>
-      <c r="F47" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>532321</v>
-      </c>
-      <c r="B48" s="2">
-        <v>44072.12</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D48" s="2">
-        <v>26.04</v>
-      </c>
-      <c r="E48" s="2">
-        <v>28.08</v>
-      </c>
-      <c r="F48" s="2">
-        <v>74.930000000000007</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>500124</v>
-      </c>
-      <c r="B49" s="2">
-        <v>73881.03</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D49" s="2">
-        <v>15.43</v>
-      </c>
-      <c r="E49" s="2">
-        <v>15.79</v>
-      </c>
-      <c r="F49" s="2">
-        <v>140.34</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="C39" s="6"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="6"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="6"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:J50">

--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="liked" sheetId="1" r:id="rId1"/>
     <sheet name="Play" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <pivotCaches>
+    <pivotCache cacheId="12" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="71">
   <si>
     <t>Security_Code</t>
   </si>
@@ -226,6 +229,9 @@
   <si>
     <t>Sr. No.</t>
   </si>
+  <si>
+    <t>(blank)</t>
+  </si>
 </sst>
 </file>
 
@@ -287,18 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,6 +315,3672 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42317.743344907409" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="172">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K1048576" sheet="liked"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Sr. No." numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="53" count="54">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+        <n v="48"/>
+        <n v="49"/>
+        <n v="50"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="53"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Security_Code" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="500123" maxValue="590043" count="53">
+        <n v="519457"/>
+        <n v="526263"/>
+        <n v="536264"/>
+        <n v="530843"/>
+        <n v="523828"/>
+        <n v="532801"/>
+        <n v="519602"/>
+        <n v="523660"/>
+        <n v="532890"/>
+        <n v="533088"/>
+        <n v="506685"/>
+        <n v="531489"/>
+        <n v="506943"/>
+        <n v="504067"/>
+        <n v="500233"/>
+        <n v="500163"/>
+        <n v="531161"/>
+        <n v="534312"/>
+        <n v="526161"/>
+        <n v="531744"/>
+        <n v="506879"/>
+        <n v="516064"/>
+        <n v="500123"/>
+        <n v="533217"/>
+        <n v="506076"/>
+        <n v="533206"/>
+        <n v="532321"/>
+        <n v="500124"/>
+        <n v="531236"/>
+        <n v="526299"/>
+        <n v="514266"/>
+        <n v="524828"/>
+        <n v="522029"/>
+        <n v="507488"/>
+        <n v="532927"/>
+        <n v="532531"/>
+        <n v="524774"/>
+        <n v="538595"/>
+        <n v="522295"/>
+        <n v="505710"/>
+        <n v="531633"/>
+        <n v="590031"/>
+        <n v="500674"/>
+        <n v="538964"/>
+        <n v="524654"/>
+        <n v="526001"/>
+        <n v="590043"/>
+        <n v="538922"/>
+        <n v="504959"/>
+        <n v="517080"/>
+        <n v="526821"/>
+        <n v="531726"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" Market_Cap" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.56" maxValue="73881.03" count="54">
+        <n v="124.18"/>
+        <n v="149.08000000000001"/>
+        <n v="155.41999999999999"/>
+        <n v="272.43"/>
+        <n v="281.60000000000002"/>
+        <n v="285.04000000000002"/>
+        <n v="592.22"/>
+        <n v="637.73"/>
+        <n v="2394.14"/>
+        <n v="3491.31"/>
+        <n v="272.26"/>
+        <n v="19.23"/>
+        <n v="2550.96"/>
+        <n v="4384.41"/>
+        <n v="6922.94"/>
+        <n v="3678.31"/>
+        <n v="277.33"/>
+        <n v="576.21"/>
+        <n v="34.090000000000003"/>
+        <n v="72.7"/>
+        <n v="95.53"/>
+        <n v="762.86"/>
+        <n v="1138.81"/>
+        <n v="2098.33"/>
+        <n v="4495.51"/>
+        <n v="11623.92"/>
+        <n v="44072.12"/>
+        <n v="73881.03"/>
+        <n v="13.18"/>
+        <n v="8786.19"/>
+        <n v="42.87"/>
+        <n v="47.21"/>
+        <n v="218.5"/>
+        <n v="612.6"/>
+        <n v="5649.96"/>
+        <n v="7894.43"/>
+        <n v="153.21"/>
+        <n v="171.92"/>
+        <n v="389.1"/>
+        <n v="537.29"/>
+        <n v="275.49"/>
+        <n v="130.93"/>
+        <n v="10471.280000000001"/>
+        <n v="51.98"/>
+        <n v="71.56"/>
+        <n v="302.88"/>
+        <n v="11.56"/>
+        <n v="125.32"/>
+        <n v="19.690000000000001"/>
+        <n v="405.08"/>
+        <n v="867.75"/>
+        <n v="406.61"/>
+        <n v="39.950000000000003"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" Debt_to_Equity" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.01" maxValue="0.5" count="29">
+        <n v="0.06"/>
+        <n v="0.28000000000000003"/>
+        <n v="0.3"/>
+        <n v="0.09"/>
+        <n v="0.39"/>
+        <s v=" --"/>
+        <n v="0.2"/>
+        <n v="0.12"/>
+        <n v="0.01"/>
+        <n v="0.1"/>
+        <n v="0.11"/>
+        <n v="0.16"/>
+        <n v="0.04"/>
+        <n v="0.17"/>
+        <n v="0.27"/>
+        <n v="0.13"/>
+        <n v="0.24"/>
+        <n v="0.28999999999999998"/>
+        <n v="0.03"/>
+        <n v="0.43"/>
+        <n v="0.21"/>
+        <n v="0.22"/>
+        <n v="0.34"/>
+        <n v="0.31"/>
+        <n v="0.08"/>
+        <n v="0.23"/>
+        <n v="0.32"/>
+        <n v="0.5"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" RoCE" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="10.17" maxValue="111.26" count="49">
+        <n v="10.17"/>
+        <n v="27.26"/>
+        <n v="25.76"/>
+        <n v="44.33"/>
+        <n v="32.049999999999997"/>
+        <s v=" --"/>
+        <n v="13.04"/>
+        <n v="28.53"/>
+        <n v="17.23"/>
+        <n v="28.15"/>
+        <n v="15.67"/>
+        <n v="14.78"/>
+        <n v="32.979999999999997"/>
+        <n v="31.81"/>
+        <n v="19.37"/>
+        <n v="30.75"/>
+        <n v="33.119999999999997"/>
+        <n v="11.51"/>
+        <n v="12.19"/>
+        <n v="111.26"/>
+        <n v="33.33"/>
+        <n v="23.72"/>
+        <n v="24.32"/>
+        <n v="17.73"/>
+        <n v="26.04"/>
+        <n v="15.43"/>
+        <n v="13.93"/>
+        <n v="17.66"/>
+        <n v="25.1"/>
+        <n v="13.56"/>
+        <n v="16.690000000000001"/>
+        <n v="21.01"/>
+        <n v="10.26"/>
+        <n v="27.73"/>
+        <n v="16.010000000000002"/>
+        <n v="24.23"/>
+        <n v="22.14"/>
+        <n v="16"/>
+        <n v="15.34"/>
+        <n v="20.67"/>
+        <n v="23.81"/>
+        <n v="15.41"/>
+        <n v="24.18"/>
+        <n v="12.63"/>
+        <n v="28.77"/>
+        <n v="23.87"/>
+        <n v="13.34"/>
+        <n v="13.87"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" RoNW" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-584.96" maxValue="36.1" count="50">
+        <n v="6.01"/>
+        <n v="21.72"/>
+        <n v="19.579999999999998"/>
+        <n v="31.85"/>
+        <n v="27.05"/>
+        <s v=" --"/>
+        <n v="10.86"/>
+        <n v="19.89"/>
+        <n v="10.81"/>
+        <n v="18.829999999999998"/>
+        <n v="11.5"/>
+        <n v="11.17"/>
+        <n v="23.76"/>
+        <n v="23.31"/>
+        <n v="14.16"/>
+        <n v="20.260000000000002"/>
+        <n v="22.13"/>
+        <n v="6.62"/>
+        <n v="8.57"/>
+        <n v="-584.96"/>
+        <n v="23.3"/>
+        <n v="19.059999999999999"/>
+        <n v="16.46"/>
+        <n v="16.43"/>
+        <n v="28.08"/>
+        <n v="15.79"/>
+        <n v="11.87"/>
+        <n v="13.65"/>
+        <n v="17.670000000000002"/>
+        <n v="11.34"/>
+        <n v="13.25"/>
+        <n v="14.76"/>
+        <n v="36.1"/>
+        <n v="25.38"/>
+        <n v="11.12"/>
+        <n v="18.95"/>
+        <n v="15.04"/>
+        <n v="13.26"/>
+        <n v="10.83"/>
+        <n v="17.78"/>
+        <n v="18.260000000000002"/>
+        <n v="12.05"/>
+        <n v="27.62"/>
+        <n v="14.65"/>
+        <n v="17.95"/>
+        <n v="19.260000000000002"/>
+        <n v="15.41"/>
+        <n v="17.079999999999998"/>
+        <n v="10.26"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" Operating_Profit_per_share" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.11" maxValue="147.13999999999999" count="53">
+        <n v="1.21"/>
+        <n v="20.11"/>
+        <n v="24.44"/>
+        <n v="11.54"/>
+        <n v="24.13"/>
+        <n v="1.6"/>
+        <n v="1.47"/>
+        <n v="8.02"/>
+        <n v="0.11"/>
+        <n v="20.43"/>
+        <n v="10.08"/>
+        <n v="3.18"/>
+        <n v="22.75"/>
+        <n v="60.14"/>
+        <n v="36"/>
+        <n v="69.239999999999995"/>
+        <n v="26.5"/>
+        <n v="11.2"/>
+        <n v="15.15"/>
+        <n v="4.2300000000000004"/>
+        <n v="4.33"/>
+        <n v="7.75"/>
+        <n v="53.17"/>
+        <n v="22.68"/>
+        <n v="29.82"/>
+        <n v="5.9"/>
+        <n v="74.930000000000007"/>
+        <n v="140.34"/>
+        <n v="10.74"/>
+        <n v="28.96"/>
+        <n v="15.83"/>
+        <n v="6.61"/>
+        <n v="2.15"/>
+        <n v="30.12"/>
+        <n v="87.9"/>
+        <n v="22.46"/>
+        <n v="23.73"/>
+        <n v="55.63"/>
+        <n v="27.7"/>
+        <n v="3.26"/>
+        <n v="14.17"/>
+        <n v="9.3800000000000008"/>
+        <n v="147.13999999999999"/>
+        <n v="48.17"/>
+        <n v="21.59"/>
+        <n v="5.76"/>
+        <n v="13.5"/>
+        <n v="3.61"/>
+        <n v="76.88"/>
+        <n v="16.27"/>
+        <n v="11.33"/>
+        <n v="9.57"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name=" Secutity_Id" numFmtId="0">
+      <sharedItems containsBlank="1" count="53">
+        <s v=" virat-crane-industries-ltd"/>
+        <s v=" mold-tek-technologies-ltd"/>
+        <s v=" tiger-logistics-(india)-ltd"/>
+        <s v=" cupid-ltd"/>
+        <s v=" menon-bearings-ltd"/>
+        <s v=" cambridge-technology-enterprises-ltd"/>
+        <s v=" kellton-tech-solutions-ltd"/>
+        <s v=" waterbase-ltd"/>
+        <s v=" take-solutions-ltd"/>
+        <s v=" mahindra-holidays--resorts-india-ltd"/>
+        <s v=" ultramarine--pigments-ltd"/>
+        <s v=" cg-vak-software--exports-ltd"/>
+        <s v=" jbchemicals--pharmaceuticals-ltd"/>
+        <s v=" zensar-technologies-ltd"/>
+        <s v=" kajaria-ceramics-ltd"/>
+        <s v=" godfrey-phillips-india-ltd"/>
+        <s v=" abm-knowledgeware-ltd"/>
+        <s v=" mt-educare-ltd"/>
+        <s v=" spenta-international-ltd"/>
+        <s v=" gini-silk-mills-ltd"/>
+        <s v=" gujarat-themis-biosyn-ltd"/>
+        <s v=" arrow-coated-products-ltd"/>
+        <s v=" elantas-beck-india-ltd"/>
+        <s v=" hindustan-media-ventures-ltd"/>
+        <s v=" grindwell-norton-ltd"/>
+        <s v=" sjvn-ltd"/>
+        <s v=" cadila-healthcare-ltd"/>
+        <s v=" drreddys-laboratories-ltd"/>
+        <s v=" mewar-polytex-ltd"/>
+        <s v=" mphasis-ltd"/>
+        <s v=" zenith-fibres-ltd"/>
+        <s v=" bdh-industries-ltd"/>
+        <s v=" windsor-machines-ltd"/>
+        <s v=" gmbreweries-ltd"/>
+        <s v=" eclerx-services-ltd"/>
+        <s v=" strides-arcolab-ltd"/>
+        <s v=" ngl-fine-chem-ltd"/>
+        <s v=" gloster-ltd"/>
+        <s v=" control-print-ltd"/>
+        <s v=" grauer--weil-(india)-ltd"/>
+        <s v=" lincoln-pharmaceuticals-ltd"/>
+        <s v=" de-nora-india-ltd"/>
+        <s v=" sanofi-india-ltd"/>
+        <s v=" mercury-laboratories-ltd"/>
+        <s v=" natural-capsules-ltd"/>
+        <s v=" jauss-polymers-ltd"/>
+        <s v=" harita-seating-systems-ltd"/>
+        <s v=" css-technergy-ltd"/>
+        <s v=" stovec-industries-ltd"/>
+        <s v=" high-ground-enterprise-ltd"/>
+        <s v=" dai-ichi-karkaria-ltd"/>
+        <s v=" panchsheel-organics-ltd"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Priority" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <m/>
+        <s v="*"/>
+        <s v="**"/>
+        <s v="***"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PE" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Red flags" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <m/>
+        <s v="Very high trade receivables"/>
+        <s v="Software company has inventory :)"/>
+        <s v="High trade receivables"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="172">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="10"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="13"/>
+    <x v="13"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="14"/>
+    <x v="14"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="12"/>
+    <x v="16"/>
+    <x v="16"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="13"/>
+    <x v="17"/>
+    <x v="17"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="14"/>
+    <x v="18"/>
+    <x v="18"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="5"/>
+    <x v="19"/>
+    <x v="19"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="20"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="15"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="5"/>
+    <x v="22"/>
+    <x v="22"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="16"/>
+    <x v="23"/>
+    <x v="23"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="24"/>
+    <x v="24"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="17"/>
+    <x v="25"/>
+    <x v="25"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="4"/>
+    <x v="26"/>
+    <x v="26"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="18"/>
+    <x v="27"/>
+    <x v="27"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="4"/>
+    <x v="29"/>
+    <x v="29"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="19"/>
+    <x v="30"/>
+    <x v="30"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="20"/>
+    <x v="31"/>
+    <x v="31"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="21"/>
+    <x v="32"/>
+    <x v="32"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="22"/>
+    <x v="33"/>
+    <x v="33"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="23"/>
+    <x v="34"/>
+    <x v="34"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="24"/>
+    <x v="35"/>
+    <x v="35"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="25"/>
+    <x v="36"/>
+    <x v="36"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="19"/>
+    <x v="37"/>
+    <x v="37"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="5"/>
+    <x v="38"/>
+    <x v="38"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="5"/>
+    <x v="39"/>
+    <x v="39"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="26"/>
+    <x v="40"/>
+    <x v="40"/>
+    <x v="43"/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="7"/>
+    <x v="41"/>
+    <x v="41"/>
+    <x v="44"/>
+    <x v="44"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="3"/>
+    <x v="45"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="45"/>
+    <x v="46"/>
+    <x v="10"/>
+    <x v="42"/>
+    <x v="42"/>
+    <x v="45"/>
+    <x v="45"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="46"/>
+    <x v="47"/>
+    <x v="27"/>
+    <x v="23"/>
+    <x v="43"/>
+    <x v="46"/>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="47"/>
+    <x v="48"/>
+    <x v="6"/>
+    <x v="43"/>
+    <x v="44"/>
+    <x v="47"/>
+    <x v="47"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="5"/>
+    <x v="44"/>
+    <x v="45"/>
+    <x v="48"/>
+    <x v="48"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="49"/>
+    <x v="50"/>
+    <x v="8"/>
+    <x v="45"/>
+    <x v="46"/>
+    <x v="49"/>
+    <x v="49"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="50"/>
+    <x v="51"/>
+    <x v="8"/>
+    <x v="46"/>
+    <x v="47"/>
+    <x v="50"/>
+    <x v="50"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="51"/>
+    <x v="52"/>
+    <x v="22"/>
+    <x v="47"/>
+    <x v="48"/>
+    <x v="51"/>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="52"/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A1:G55" firstHeaderRow="1" firstDataRow="1" firstDataCol="7"/>
+  <pivotFields count="11">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="54">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="53">
+        <item x="22"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="42"/>
+        <item x="13"/>
+        <item x="48"/>
+        <item x="39"/>
+        <item x="24"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="12"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="21"/>
+        <item x="49"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="32"/>
+        <item x="38"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="31"/>
+        <item x="45"/>
+        <item x="18"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="50"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="40"/>
+        <item x="51"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="35"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="34"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="37"/>
+        <item x="47"/>
+        <item x="43"/>
+        <item x="41"/>
+        <item x="46"/>
+        <item x="52"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="54">
+        <item x="46"/>
+        <item x="28"/>
+        <item x="11"/>
+        <item x="48"/>
+        <item x="18"/>
+        <item x="52"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="0"/>
+        <item x="47"/>
+        <item x="41"/>
+        <item x="1"/>
+        <item x="36"/>
+        <item x="2"/>
+        <item x="37"/>
+        <item x="32"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="40"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="45"/>
+        <item x="38"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="39"/>
+        <item x="17"/>
+        <item x="6"/>
+        <item x="33"/>
+        <item x="7"/>
+        <item x="21"/>
+        <item x="50"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="14"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="42"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="53"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="29">
+        <item x="8"/>
+        <item x="18"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="24"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="17"/>
+        <item x="2"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="22"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="5"/>
+        <item x="28"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="49">
+        <item x="0"/>
+        <item x="32"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="43"/>
+        <item x="6"/>
+        <item x="46"/>
+        <item x="29"/>
+        <item x="47"/>
+        <item x="26"/>
+        <item x="11"/>
+        <item x="38"/>
+        <item x="41"/>
+        <item x="25"/>
+        <item x="10"/>
+        <item x="37"/>
+        <item x="34"/>
+        <item x="30"/>
+        <item x="8"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="14"/>
+        <item x="39"/>
+        <item x="31"/>
+        <item x="36"/>
+        <item x="21"/>
+        <item x="40"/>
+        <item x="45"/>
+        <item x="42"/>
+        <item x="35"/>
+        <item x="22"/>
+        <item x="28"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item x="1"/>
+        <item x="33"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="44"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="48"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="50">
+        <item x="19"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item x="8"/>
+        <item x="38"/>
+        <item x="6"/>
+        <item x="34"/>
+        <item x="11"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="30"/>
+        <item x="37"/>
+        <item x="27"/>
+        <item x="14"/>
+        <item x="43"/>
+        <item x="31"/>
+        <item x="36"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="47"/>
+        <item x="28"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="45"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="33"/>
+        <item x="4"/>
+        <item x="42"/>
+        <item x="24"/>
+        <item x="3"/>
+        <item x="32"/>
+        <item x="5"/>
+        <item x="49"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="53">
+        <item x="8"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="32"/>
+        <item x="11"/>
+        <item x="39"/>
+        <item x="47"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item x="21"/>
+        <item x="7"/>
+        <item x="41"/>
+        <item x="51"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="17"/>
+        <item x="50"/>
+        <item x="3"/>
+        <item x="46"/>
+        <item x="40"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item x="49"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="44"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="12"/>
+        <item x="36"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="16"/>
+        <item x="38"/>
+        <item x="29"/>
+        <item x="24"/>
+        <item x="33"/>
+        <item x="14"/>
+        <item x="43"/>
+        <item x="22"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="26"/>
+        <item x="48"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="42"/>
+        <item x="52"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="53">
+        <item x="16"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="38"/>
+        <item x="47"/>
+        <item x="3"/>
+        <item x="50"/>
+        <item x="41"/>
+        <item x="27"/>
+        <item x="34"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="37"/>
+        <item x="33"/>
+        <item x="15"/>
+        <item x="39"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="46"/>
+        <item x="49"/>
+        <item x="23"/>
+        <item x="45"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="28"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="51"/>
+        <item x="42"/>
+        <item x="25"/>
+        <item x="18"/>
+        <item x="48"/>
+        <item x="35"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="13"/>
+        <item x="52"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="1">
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="7">
+    <field x="2"/>
+    <field x="3"/>
+    <field x="4"/>
+    <field x="5"/>
+    <field x="6"/>
+    <field x="7"/>
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="54">
+    <i>
+      <x/>
+      <x v="7"/>
+      <x v="28"/>
+      <x v="44"/>
+      <x v="10"/>
+      <x v="24"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="24"/>
+      <x v="9"/>
+      <x v="12"/>
+      <x v="18"/>
+      <x v="32"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+      <x v="14"/>
+      <x v="11"/>
+      <x v="5"/>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="12"/>
+      <x v="4"/>
+      <x v="28"/>
+      <x v="7"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="11"/>
+      <x v="2"/>
+      <x v="2"/>
+      <x v="24"/>
+      <x v="41"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="23"/>
+      <x v="8"/>
+      <x v="4"/>
+      <x v="16"/>
+      <x v="38"/>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+      <x v="31"/>
+      <x v="26"/>
+      <x v="25"/>
+      <x v="50"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="24"/>
+      <x v="7"/>
+      <x v="10"/>
+      <x v="12"/>
+      <x v="2"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="22"/>
+      <x v="26"/>
+      <x v="29"/>
+      <x v="42"/>
+      <x v="31"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="8"/>
+      <x v="12"/>
+      <x v="13"/>
+      <x v="29"/>
+      <x v="36"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="17"/>
+      <x v="3"/>
+      <x v="3"/>
+      <x v="8"/>
+      <x v="14"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="27"/>
+      <x v="46"/>
+      <x/>
+      <x v="9"/>
+      <x v="20"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="3"/>
+      <x/>
+      <x v="1"/>
+      <x v="1"/>
+      <x v="47"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="26"/>
+      <x v="20"/>
+      <x v="18"/>
+      <x v="22"/>
+      <x v="21"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="27"/>
+      <x v="11"/>
+      <x v="6"/>
+      <x v="15"/>
+      <x v="10"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="18"/>
+      <x v="34"/>
+      <x v="37"/>
+      <x v="27"/>
+      <x v="33"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="23"/>
+      <x v="35"/>
+      <x v="42"/>
+      <x v="33"/>
+      <x v="37"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="20"/>
+      <x v="32"/>
+      <x v="34"/>
+      <x v="35"/>
+      <x v="45"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="21"/>
+      <x v="16"/>
+      <x v="8"/>
+      <x v="44"/>
+      <x v="15"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="25"/>
+      <x v="17"/>
+      <x v="14"/>
+      <x v="4"/>
+      <x v="49"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="27"/>
+      <x v="36"/>
+      <x v="30"/>
+      <x v="17"/>
+      <x v="46"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x v="5"/>
+      <x v="45"/>
+      <x v="46"/>
+      <x v="21"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x v="25"/>
+      <x v="15"/>
+      <x v="15"/>
+      <x v="23"/>
+      <x v="28"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="23"/>
+      <x v="27"/>
+      <x v="39"/>
+      <x v="36"/>
+      <x v="36"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="24"/>
+      <x v="41"/>
+      <x v="43"/>
+      <x v="34"/>
+      <x v="30"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="27"/>
+      <x v="47"/>
+      <x v="48"/>
+      <x v="3"/>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x v="5"/>
+      <x v="45"/>
+      <x v="46"/>
+      <x v="21"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="27"/>
+      <x v="4"/>
+      <x v="29"/>
+      <x v="31"/>
+      <x v="37"/>
+      <x v="6"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="28"/>
+      <x v="27"/>
+      <x v="38"/>
+      <x v="33"/>
+      <x v="48"/>
+      <x v="42"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x/>
+      <x v="6"/>
+      <x v="25"/>
+      <x v="20"/>
+      <x v="9"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x v="15"/>
+      <x v="24"/>
+      <x v="20"/>
+      <x v="6"/>
+      <x v="18"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="2"/>
+      <x v="43"/>
+      <x v="38"/>
+      <x v="19"/>
+      <x v="35"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="12"/>
+      <x v="5"/>
+      <x v="7"/>
+      <x v="2"/>
+      <x v="27"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="13"/>
+      <x v="23"/>
+      <x v="19"/>
+      <x v="40"/>
+      <x v="16"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="8"/>
+      <x v="37"/>
+      <x v="35"/>
+      <x v="14"/>
+      <x v="48"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="27"/>
+      <x v="47"/>
+      <x v="48"/>
+      <x v="13"/>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x/>
+      <x v="27"/>
+      <x v="21"/>
+      <x v="26"/>
+      <x v="22"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="27"/>
+      <x v="44"/>
+      <x v="39"/>
+      <x v="43"/>
+      <x v="13"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="9"/>
+      <x v="25"/>
+      <x v="32"/>
+      <x v="31"/>
+      <x v="23"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="27"/>
+      <x v="47"/>
+      <x v="48"/>
+      <x/>
+      <x v="44"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="6"/>
+      <x v="10"/>
+      <x v="9"/>
+      <x v="32"/>
+      <x v="25"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x/>
+      <x v="18"/>
+      <x v="5"/>
+      <x v="28"/>
+      <x v="29"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="10"/>
+      <x v="21"/>
+      <x v="17"/>
+      <x v="46"/>
+      <x v="17"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="27"/>
+      <x v="42"/>
+      <x v="41"/>
+      <x v="45"/>
+      <x v="51"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="27"/>
+      <x v="30"/>
+      <x v="24"/>
+      <x v="39"/>
+      <x v="19"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="45"/>
+      <x v="27"/>
+      <x v="47"/>
+      <x v="48"/>
+      <x v="49"/>
+      <x v="12"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="46"/>
+      <x v="7"/>
+      <x v="40"/>
+      <x v="40"/>
+      <x v="41"/>
+      <x v="26"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="14"/>
+      <x v="1"/>
+      <x v="47"/>
+      <x v="30"/>
+      <x v="43"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="1"/>
+      <x v="19"/>
+      <x v="16"/>
+      <x v="38"/>
+      <x v="34"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x v="27"/>
+      <x v="22"/>
+      <x v="27"/>
+      <x v="51"/>
+      <x v="39"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="50"/>
+      <x v="16"/>
+      <x v="20"/>
+      <x v="23"/>
+      <x v="11"/>
+      <x v="40"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="51"/>
+      <x v="18"/>
+      <x v="33"/>
+      <x v="45"/>
+      <x v="47"/>
+      <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="52"/>
+      <x v="19"/>
+      <x v="13"/>
+      <x v="22"/>
+      <x v="50"/>
+      <x v="11"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="53"/>
+      <x v="28"/>
+      <x v="48"/>
+      <x v="49"/>
+      <x v="52"/>
+      <x v="52"/>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -603,10 +4270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3747,19 +7414,6 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3767,19 +7421,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C68"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="13" width="6" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" customWidth="1"/>
+    <col min="7" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="22" width="7" customWidth="1"/>
@@ -3978,256 +7633,1272 @@
     <col min="266" max="266" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="6"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="6"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="6"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="6"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="6"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68" s="5"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11.56</v>
+      </c>
+      <c r="B2">
+        <v>0.11</v>
+      </c>
+      <c r="C2">
+        <v>24.18</v>
+      </c>
+      <c r="D2">
+        <v>27.62</v>
+      </c>
+      <c r="E2">
+        <v>5.76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13.18</v>
+      </c>
+      <c r="B3">
+        <v>0.39</v>
+      </c>
+      <c r="C3">
+        <v>13.93</v>
+      </c>
+      <c r="D3">
+        <v>11.87</v>
+      </c>
+      <c r="E3">
+        <v>10.74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19.23</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>15.67</v>
+      </c>
+      <c r="D4">
+        <v>11.5</v>
+      </c>
+      <c r="E4">
+        <v>3.18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>19.690000000000001</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>12.63</v>
+      </c>
+      <c r="D5">
+        <v>17.95</v>
+      </c>
+      <c r="E5">
+        <v>3.61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="B6">
+        <v>0.17</v>
+      </c>
+      <c r="C6">
+        <v>11.51</v>
+      </c>
+      <c r="D6">
+        <v>6.62</v>
+      </c>
+      <c r="E6">
+        <v>15.15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="B7">
+        <v>0.34</v>
+      </c>
+      <c r="C7">
+        <v>13.87</v>
+      </c>
+      <c r="D7">
+        <v>10.26</v>
+      </c>
+      <c r="E7">
+        <v>9.57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42.87</v>
+      </c>
+      <c r="B8">
+        <v>0.01</v>
+      </c>
+      <c r="C8">
+        <v>25.1</v>
+      </c>
+      <c r="D8">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="E8">
+        <v>15.83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>47.21</v>
+      </c>
+      <c r="B9">
+        <v>0.39</v>
+      </c>
+      <c r="C9">
+        <v>13.56</v>
+      </c>
+      <c r="D9">
+        <v>11.34</v>
+      </c>
+      <c r="E9">
+        <v>6.61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>51.98</v>
+      </c>
+      <c r="B10">
+        <v>0.32</v>
+      </c>
+      <c r="C10">
+        <v>23.81</v>
+      </c>
+      <c r="D10">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="E10">
+        <v>48.17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>71.56</v>
+      </c>
+      <c r="B11">
+        <v>0.12</v>
+      </c>
+      <c r="C11">
+        <v>15.41</v>
+      </c>
+      <c r="D11">
+        <v>12.05</v>
+      </c>
+      <c r="E11">
+        <v>21.59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>72.7</v>
+      </c>
+      <c r="B12">
+        <v>0.27</v>
+      </c>
+      <c r="C12">
+        <v>12.19</v>
+      </c>
+      <c r="D12">
+        <v>8.57</v>
+      </c>
+      <c r="E12">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>95.53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>111.26</v>
+      </c>
+      <c r="D13">
+        <v>-584.96</v>
+      </c>
+      <c r="E13">
+        <v>4.33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>124.18</v>
+      </c>
+      <c r="B14">
+        <v>0.06</v>
+      </c>
+      <c r="C14">
+        <v>10.17</v>
+      </c>
+      <c r="D14">
+        <v>6.01</v>
+      </c>
+      <c r="E14">
+        <v>1.21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>125.32</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>17.73</v>
+      </c>
+      <c r="D15">
+        <v>14.65</v>
+      </c>
+      <c r="E15">
+        <v>13.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>130.93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>15.34</v>
+      </c>
+      <c r="D16">
+        <v>10.83</v>
+      </c>
+      <c r="E16">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>149.08000000000001</v>
+      </c>
+      <c r="B17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C17">
+        <v>27.26</v>
+      </c>
+      <c r="D17">
+        <v>21.72</v>
+      </c>
+      <c r="E17">
+        <v>20.11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>153.21</v>
+      </c>
+      <c r="B18">
+        <v>0.34</v>
+      </c>
+      <c r="C18">
+        <v>27.73</v>
+      </c>
+      <c r="D18">
+        <v>25.38</v>
+      </c>
+      <c r="E18">
+        <v>23.73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>155.41999999999999</v>
+      </c>
+      <c r="B19">
+        <v>0.3</v>
+      </c>
+      <c r="C19">
+        <v>25.76</v>
+      </c>
+      <c r="D19">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="E19">
+        <v>24.44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>171.92</v>
+      </c>
+      <c r="B20">
+        <v>0.31</v>
+      </c>
+      <c r="C20">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="D20">
+        <v>11.12</v>
+      </c>
+      <c r="E20">
+        <v>55.63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>218.5</v>
+      </c>
+      <c r="B21">
+        <v>0.43</v>
+      </c>
+      <c r="C21">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="D21">
+        <v>13.25</v>
+      </c>
+      <c r="E21">
+        <v>2.15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>272.26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>28.15</v>
+      </c>
+      <c r="D22">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="E22">
+        <v>10.08</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>272.43</v>
+      </c>
+      <c r="B23">
+        <v>0.09</v>
+      </c>
+      <c r="C23">
+        <v>44.33</v>
+      </c>
+      <c r="D23">
+        <v>31.85</v>
+      </c>
+      <c r="E23">
+        <v>11.54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>275.49</v>
+      </c>
+      <c r="B24">
+        <v>0.43</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>13.26</v>
+      </c>
+      <c r="E24">
+        <v>14.17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>277.33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>30.75</v>
+      </c>
+      <c r="D25">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="E25">
+        <v>26.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="B26">
+        <v>0.39</v>
+      </c>
+      <c r="C26">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="D26">
+        <v>27.05</v>
+      </c>
+      <c r="E26">
+        <v>24.13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>285.04000000000002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>302.88</v>
+      </c>
+      <c r="B28">
+        <v>0.09</v>
+      </c>
+      <c r="C28">
+        <v>44.33</v>
+      </c>
+      <c r="D28">
+        <v>31.85</v>
+      </c>
+      <c r="E28">
+        <v>11.54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>389.1</v>
+      </c>
+      <c r="B29">
+        <v>0.08</v>
+      </c>
+      <c r="C29">
+        <v>24.23</v>
+      </c>
+      <c r="D29">
+        <v>18.95</v>
+      </c>
+      <c r="E29">
+        <v>27.7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>405.08</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>28.77</v>
+      </c>
+      <c r="D30">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="E30">
+        <v>76.88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>406.61</v>
+      </c>
+      <c r="B31">
+        <v>0.01</v>
+      </c>
+      <c r="C31">
+        <v>13.34</v>
+      </c>
+      <c r="D31">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="E31">
+        <v>11.33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>537.29</v>
+      </c>
+      <c r="B32">
+        <v>0.23</v>
+      </c>
+      <c r="C32">
+        <v>22.14</v>
+      </c>
+      <c r="D32">
+        <v>15.04</v>
+      </c>
+      <c r="E32">
+        <v>3.26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>576.21</v>
+      </c>
+      <c r="B33">
+        <v>0.04</v>
+      </c>
+      <c r="C33">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="D33">
+        <v>22.13</v>
+      </c>
+      <c r="E33">
+        <v>11.2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>592.22</v>
+      </c>
+      <c r="B34">
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <v>13.04</v>
+      </c>
+      <c r="D34">
+        <v>10.86</v>
+      </c>
+      <c r="E34">
+        <v>1.47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>612.6</v>
+      </c>
+      <c r="B35">
+        <v>0.21</v>
+      </c>
+      <c r="C35">
+        <v>21.01</v>
+      </c>
+      <c r="D35">
+        <v>14.76</v>
+      </c>
+      <c r="E35">
+        <v>30.12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>637.73</v>
+      </c>
+      <c r="B36">
+        <v>0.12</v>
+      </c>
+      <c r="C36">
+        <v>28.53</v>
+      </c>
+      <c r="D36">
+        <v>19.89</v>
+      </c>
+      <c r="E36">
+        <v>8.02</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>762.86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>7.75</v>
+      </c>
+      <c r="F37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>867.75</v>
+      </c>
+      <c r="B38">
+        <v>0.01</v>
+      </c>
+      <c r="C38">
+        <v>23.87</v>
+      </c>
+      <c r="D38">
+        <v>15.41</v>
+      </c>
+      <c r="E38">
+        <v>16.27</v>
+      </c>
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1138.81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>33.33</v>
+      </c>
+      <c r="D39">
+        <v>23.3</v>
+      </c>
+      <c r="E39">
+        <v>53.17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2098.33</v>
+      </c>
+      <c r="B40">
+        <v>0.13</v>
+      </c>
+      <c r="C40">
+        <v>23.72</v>
+      </c>
+      <c r="D40">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="E40">
+        <v>22.68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2394.14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0.11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2550.96</v>
+      </c>
+      <c r="B42">
+        <v>0.1</v>
+      </c>
+      <c r="C42">
+        <v>14.78</v>
+      </c>
+      <c r="D42">
+        <v>11.17</v>
+      </c>
+      <c r="E42">
+        <v>22.75</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3491.31</v>
+      </c>
+      <c r="B43">
+        <v>0.01</v>
+      </c>
+      <c r="C43">
+        <v>17.23</v>
+      </c>
+      <c r="D43">
+        <v>10.81</v>
+      </c>
+      <c r="E43">
+        <v>20.43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3678.31</v>
+      </c>
+      <c r="B44">
+        <v>0.16</v>
+      </c>
+      <c r="C44">
+        <v>19.37</v>
+      </c>
+      <c r="D44">
+        <v>14.16</v>
+      </c>
+      <c r="E44">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4384.41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="D45">
+        <v>23.76</v>
+      </c>
+      <c r="E45">
+        <v>60.14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4495.51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>24.32</v>
+      </c>
+      <c r="D46">
+        <v>16.46</v>
+      </c>
+      <c r="E46">
+        <v>29.82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5649.96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>87.9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6922.94</v>
+      </c>
+      <c r="B48">
+        <v>0.11</v>
+      </c>
+      <c r="C48">
+        <v>31.81</v>
+      </c>
+      <c r="D48">
+        <v>23.31</v>
+      </c>
+      <c r="E48">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7894.43</v>
+      </c>
+      <c r="B49">
+        <v>0.22</v>
+      </c>
+      <c r="C49">
+        <v>10.26</v>
+      </c>
+      <c r="D49">
+        <v>36.1</v>
+      </c>
+      <c r="E49">
+        <v>22.46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8786.19</v>
+      </c>
+      <c r="B50">
+        <v>0.03</v>
+      </c>
+      <c r="C50">
+        <v>17.66</v>
+      </c>
+      <c r="D50">
+        <v>13.65</v>
+      </c>
+      <c r="E50">
+        <v>28.96</v>
+      </c>
+      <c r="F50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10471.280000000001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>20.67</v>
+      </c>
+      <c r="D51">
+        <v>17.78</v>
+      </c>
+      <c r="E51">
+        <v>147.13999999999999</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>11623.92</v>
+      </c>
+      <c r="B52">
+        <v>0.24</v>
+      </c>
+      <c r="C52">
+        <v>17.73</v>
+      </c>
+      <c r="D52">
+        <v>16.43</v>
+      </c>
+      <c r="E52">
+        <v>5.9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>44072.12</v>
+      </c>
+      <c r="B53">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C53">
+        <v>26.04</v>
+      </c>
+      <c r="D53">
+        <v>28.08</v>
+      </c>
+      <c r="E53">
+        <v>74.930000000000007</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>73881.03</v>
+      </c>
+      <c r="B54">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C54">
+        <v>15.43</v>
+      </c>
+      <c r="D54">
+        <v>15.79</v>
+      </c>
+      <c r="E54">
+        <v>140.34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J50">
-    <sortCondition ref="B2:B50"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="liked" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="122211"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="35" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -318,128 +318,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42317.743344907409" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="172">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42317.764784143517" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="171">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K1048576" sheet="liked"/>
   </cacheSource>
   <cacheFields count="11">
     <cacheField name="Sr. No." numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="53" count="54">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-        <n v="28"/>
-        <n v="29"/>
-        <n v="30"/>
-        <n v="31"/>
-        <n v="32"/>
-        <n v="33"/>
-        <n v="34"/>
-        <n v="35"/>
-        <n v="36"/>
-        <n v="37"/>
-        <n v="38"/>
-        <n v="39"/>
-        <n v="40"/>
-        <n v="41"/>
-        <n v="42"/>
-        <n v="43"/>
-        <n v="44"/>
-        <n v="45"/>
-        <n v="46"/>
-        <n v="47"/>
-        <n v="48"/>
-        <n v="49"/>
-        <n v="50"/>
-        <n v="51"/>
-        <n v="52"/>
-        <n v="53"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="53"/>
     </cacheField>
     <cacheField name="Security_Code" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="500123" maxValue="590043" count="53">
-        <n v="519457"/>
-        <n v="526263"/>
-        <n v="536264"/>
-        <n v="530843"/>
-        <n v="523828"/>
-        <n v="532801"/>
-        <n v="519602"/>
-        <n v="523660"/>
-        <n v="532890"/>
-        <n v="533088"/>
-        <n v="506685"/>
-        <n v="531489"/>
-        <n v="506943"/>
-        <n v="504067"/>
-        <n v="500233"/>
-        <n v="500163"/>
-        <n v="531161"/>
-        <n v="534312"/>
-        <n v="526161"/>
-        <n v="531744"/>
-        <n v="506879"/>
-        <n v="516064"/>
-        <n v="500123"/>
-        <n v="533217"/>
-        <n v="506076"/>
-        <n v="533206"/>
-        <n v="532321"/>
-        <n v="500124"/>
-        <n v="531236"/>
-        <n v="526299"/>
-        <n v="514266"/>
-        <n v="524828"/>
-        <n v="522029"/>
-        <n v="507488"/>
-        <n v="532927"/>
-        <n v="532531"/>
-        <n v="524774"/>
-        <n v="538595"/>
-        <n v="522295"/>
-        <n v="505710"/>
-        <n v="531633"/>
-        <n v="590031"/>
-        <n v="500674"/>
-        <n v="538964"/>
-        <n v="524654"/>
-        <n v="526001"/>
-        <n v="590043"/>
-        <n v="538922"/>
-        <n v="504959"/>
-        <n v="517080"/>
-        <n v="526821"/>
-        <n v="531726"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="500123" maxValue="590043"/>
     </cacheField>
     <cacheField name=" Market_Cap" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.56" maxValue="73881.03" count="54">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.56" maxValue="11111111111111" count="55">
         <n v="124.18"/>
         <n v="149.08000000000001"/>
         <n v="155.41999999999999"/>
@@ -494,6 +385,7 @@
         <n v="406.61"/>
         <n v="39.950000000000003"/>
         <m/>
+        <n v="11111111111111" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name=" Debt_to_Equity" numFmtId="0">
@@ -751,17 +643,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Priority" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <m/>
-        <s v="*"/>
-        <s v="**"/>
-        <s v="***"/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="PE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Red flags" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -781,2367 +666,2241 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="172">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="171">
+  <r>
+    <n v="1"/>
+    <n v="519457"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="526263"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="536264"/>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
     <x v="1"/>
   </r>
   <r>
+    <n v="4"/>
+    <n v="530843"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="523828"/>
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
     <x v="4"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="532801"/>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="519602"/>
     <x v="6"/>
     <x v="6"/>
     <x v="6"/>
     <x v="6"/>
     <x v="6"/>
     <x v="6"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="523660"/>
     <x v="7"/>
     <x v="7"/>
     <x v="7"/>
     <x v="7"/>
     <x v="7"/>
     <x v="7"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="532890"/>
     <x v="8"/>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
     <x v="8"/>
     <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="533088"/>
     <x v="9"/>
     <x v="8"/>
     <x v="8"/>
     <x v="8"/>
     <x v="9"/>
     <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="506685"/>
     <x v="10"/>
     <x v="5"/>
     <x v="9"/>
     <x v="9"/>
     <x v="10"/>
     <x v="10"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="531489"/>
     <x v="11"/>
     <x v="8"/>
     <x v="10"/>
     <x v="10"/>
     <x v="11"/>
     <x v="11"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="506943"/>
     <x v="12"/>
     <x v="9"/>
     <x v="11"/>
     <x v="11"/>
     <x v="12"/>
     <x v="12"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="504067"/>
     <x v="13"/>
     <x v="5"/>
     <x v="12"/>
     <x v="12"/>
     <x v="13"/>
     <x v="13"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="500233"/>
     <x v="14"/>
     <x v="10"/>
     <x v="13"/>
     <x v="13"/>
     <x v="14"/>
     <x v="14"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="500163"/>
     <x v="15"/>
     <x v="11"/>
     <x v="14"/>
     <x v="14"/>
     <x v="15"/>
     <x v="15"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="531161"/>
     <x v="16"/>
     <x v="5"/>
     <x v="15"/>
     <x v="15"/>
     <x v="16"/>
     <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="534312"/>
     <x v="17"/>
     <x v="12"/>
     <x v="16"/>
     <x v="16"/>
     <x v="17"/>
     <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="526161"/>
     <x v="18"/>
     <x v="13"/>
     <x v="17"/>
     <x v="17"/>
     <x v="18"/>
     <x v="18"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="531744"/>
     <x v="19"/>
     <x v="14"/>
     <x v="18"/>
     <x v="18"/>
     <x v="19"/>
     <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="506879"/>
     <x v="20"/>
     <x v="5"/>
     <x v="19"/>
     <x v="19"/>
     <x v="20"/>
     <x v="20"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="516064"/>
     <x v="21"/>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
     <x v="21"/>
     <x v="21"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
+    <s v="**"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="500123"/>
     <x v="22"/>
     <x v="5"/>
     <x v="20"/>
     <x v="20"/>
     <x v="22"/>
     <x v="22"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="533217"/>
     <x v="23"/>
     <x v="15"/>
     <x v="21"/>
     <x v="21"/>
     <x v="23"/>
     <x v="23"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="506076"/>
     <x v="24"/>
     <x v="5"/>
     <x v="22"/>
     <x v="22"/>
     <x v="24"/>
     <x v="24"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="533206"/>
     <x v="25"/>
     <x v="16"/>
     <x v="23"/>
     <x v="23"/>
     <x v="25"/>
     <x v="25"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="532321"/>
     <x v="26"/>
     <x v="1"/>
     <x v="24"/>
     <x v="24"/>
     <x v="26"/>
     <x v="26"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="500124"/>
     <x v="27"/>
     <x v="17"/>
     <x v="25"/>
     <x v="25"/>
     <x v="27"/>
     <x v="27"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="531236"/>
     <x v="28"/>
     <x v="4"/>
     <x v="26"/>
     <x v="26"/>
     <x v="28"/>
     <x v="28"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="526299"/>
     <x v="29"/>
     <x v="18"/>
     <x v="27"/>
     <x v="27"/>
     <x v="29"/>
     <x v="29"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="514266"/>
+    <x v="30"/>
+    <x v="8"/>
+    <x v="28"/>
+    <x v="28"/>
     <x v="30"/>
     <x v="30"/>
-    <x v="30"/>
-    <x v="8"/>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="30"/>
-    <x v="30"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
+    <s v="***"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="524828"/>
     <x v="31"/>
     <x v="4"/>
     <x v="29"/>
     <x v="29"/>
     <x v="31"/>
     <x v="31"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
+    <s v="*"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="522029"/>
     <x v="32"/>
     <x v="19"/>
     <x v="30"/>
     <x v="30"/>
     <x v="32"/>
     <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="507488"/>
     <x v="33"/>
     <x v="20"/>
     <x v="31"/>
     <x v="31"/>
     <x v="33"/>
     <x v="33"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="532927"/>
     <x v="34"/>
     <x v="5"/>
     <x v="5"/>
     <x v="5"/>
     <x v="34"/>
     <x v="34"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="532531"/>
     <x v="35"/>
     <x v="21"/>
     <x v="32"/>
     <x v="32"/>
     <x v="35"/>
     <x v="35"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="524774"/>
     <x v="36"/>
     <x v="22"/>
     <x v="33"/>
     <x v="33"/>
     <x v="36"/>
     <x v="36"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="538595"/>
     <x v="37"/>
     <x v="23"/>
     <x v="34"/>
     <x v="34"/>
     <x v="37"/>
     <x v="37"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="522295"/>
     <x v="38"/>
     <x v="24"/>
     <x v="35"/>
     <x v="35"/>
     <x v="38"/>
     <x v="38"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="505710"/>
     <x v="39"/>
     <x v="25"/>
     <x v="36"/>
     <x v="36"/>
     <x v="39"/>
     <x v="39"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="531633"/>
     <x v="40"/>
     <x v="19"/>
     <x v="37"/>
     <x v="37"/>
     <x v="40"/>
     <x v="40"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="590031"/>
     <x v="41"/>
     <x v="5"/>
     <x v="38"/>
     <x v="38"/>
     <x v="41"/>
     <x v="41"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="500674"/>
     <x v="42"/>
     <x v="5"/>
     <x v="39"/>
     <x v="39"/>
     <x v="42"/>
     <x v="42"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="538964"/>
     <x v="43"/>
     <x v="26"/>
     <x v="40"/>
     <x v="40"/>
     <x v="43"/>
     <x v="43"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="524654"/>
     <x v="44"/>
     <x v="7"/>
     <x v="41"/>
     <x v="41"/>
     <x v="44"/>
     <x v="44"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="530843"/>
     <x v="45"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="45"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="526001"/>
     <x v="46"/>
     <x v="10"/>
     <x v="42"/>
     <x v="42"/>
     <x v="45"/>
     <x v="45"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="46"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="590043"/>
     <x v="47"/>
     <x v="27"/>
     <x v="23"/>
     <x v="43"/>
     <x v="46"/>
     <x v="46"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="47"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="538922"/>
     <x v="48"/>
     <x v="6"/>
     <x v="43"/>
     <x v="44"/>
     <x v="47"/>
     <x v="47"/>
-    <x v="1"/>
-    <x v="0"/>
+    <s v="*"/>
+    <m/>
     <x v="2"/>
   </r>
   <r>
-    <x v="49"/>
-    <x v="48"/>
+    <n v="50"/>
+    <n v="504959"/>
     <x v="49"/>
     <x v="5"/>
     <x v="44"/>
     <x v="45"/>
     <x v="48"/>
     <x v="48"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="49"/>
+    <s v="**"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="517080"/>
     <x v="50"/>
     <x v="8"/>
     <x v="45"/>
     <x v="46"/>
     <x v="49"/>
     <x v="49"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="50"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="526821"/>
     <x v="51"/>
     <x v="8"/>
     <x v="46"/>
     <x v="47"/>
     <x v="50"/>
     <x v="50"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="51"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="531726"/>
     <x v="52"/>
     <x v="22"/>
     <x v="47"/>
     <x v="48"/>
     <x v="51"/>
     <x v="51"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
     <x v="3"/>
   </r>
   <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="52"/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:G55" firstHeaderRow="1" firstDataRow="1" firstDataCol="7"/>
   <pivotFields count="11">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="54">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="53">
-        <item x="22"/>
-        <item x="27"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="42"/>
-        <item x="13"/>
-        <item x="48"/>
-        <item x="39"/>
-        <item x="24"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="12"/>
-        <item x="33"/>
-        <item x="30"/>
-        <item x="21"/>
-        <item x="49"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="32"/>
-        <item x="38"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="44"/>
-        <item x="36"/>
-        <item x="31"/>
-        <item x="45"/>
-        <item x="18"/>
-        <item x="1"/>
-        <item x="29"/>
-        <item x="50"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="28"/>
-        <item x="11"/>
-        <item x="40"/>
-        <item x="51"/>
-        <item x="19"/>
-        <item x="26"/>
-        <item x="35"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item x="34"/>
-        <item x="9"/>
-        <item x="25"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item x="2"/>
-        <item x="37"/>
-        <item x="47"/>
-        <item x="43"/>
-        <item x="41"/>
-        <item x="46"/>
-        <item x="52"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="54">
+      <items count="55">
         <item x="46"/>
         <item x="28"/>
         <item x="11"/>
@@ -3195,6 +2954,7 @@
         <item x="25"/>
         <item x="26"/>
         <item x="27"/>
+        <item m="1" x="54"/>
         <item x="53"/>
       </items>
     </pivotField>
@@ -3452,19 +3212,8 @@
         <item x="52"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="1">
-        <item x="0"/>
-      </items>
-    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="4">
         <item x="3"/>
@@ -3962,7 +3711,7 @@
       <x v="3"/>
     </i>
     <i>
-      <x v="53"/>
+      <x v="54"/>
       <x v="28"/>
       <x v="48"/>
       <x v="49"/>
@@ -4272,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7423,7 +7172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="A37:G37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="122211"/>
   <pivotCaches>
-    <pivotCache cacheId="35" r:id="rId3"/>
+    <pivotCache cacheId="44" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="72">
   <si>
     <t>Security_Code</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Very high trade receivables</t>
   </si>
   <si>
-    <t>Software company has inventory :)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> high-ground-enterprise-ltd</t>
   </si>
   <si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>Software company has inventory. Need further investigation</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42317.764784143517" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="171">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42317.790241319446" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="171">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K1048576" sheet="liked"/>
   </cacheSource>
@@ -649,11 +652,12 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Red flags" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <m/>
         <s v="Very high trade receivables"/>
-        <s v="Software company has inventory :)"/>
+        <s v="Software company has inventory. Need further investigation"/>
         <s v="High trade receivables"/>
+        <s v="Software company has inventory :)" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1313,7 +1317,7 @@
     <x v="45"/>
     <x v="48"/>
     <x v="48"/>
-    <s v="**"/>
+    <s v="****"/>
     <m/>
     <x v="0"/>
   </r>
@@ -2894,7 +2898,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:G55" firstHeaderRow="1" firstDataRow="1" firstDataCol="7"/>
   <pivotFields count="11">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3215,11 +3219,12 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="5">
         <item x="3"/>
-        <item x="2"/>
+        <item m="1" x="4"/>
         <item x="1"/>
         <item x="0"/>
+        <item x="2"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3267,7 +3272,7 @@
       <x v="28"/>
       <x v="7"/>
       <x v="7"/>
-      <x v="1"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="4"/>
@@ -4022,7 +4027,7 @@
   <dimension ref="A1:K171"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:D55"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,7 +4045,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -4064,13 +4069,13 @@
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -5519,7 +5524,7 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -5548,7 +5553,7 @@
         <v>59</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -5576,7 +5581,7 @@
         <v>16.27</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -5605,7 +5610,7 @@
         <v>11.33</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -5634,12 +5639,12 @@
         <v>9.57</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -7172,8 +7177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="A37:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7184,7 +7189,8 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
@@ -7404,7 +7410,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7427,7 +7433,7 @@
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7450,7 +7456,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7473,7 +7479,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7496,7 +7502,7 @@
         <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7519,7 +7525,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7539,10 +7545,10 @@
         <v>9.57</v>
       </c>
       <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
         <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7565,7 +7571,7 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7588,7 +7594,7 @@
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -7611,7 +7617,7 @@
         <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -7634,7 +7640,7 @@
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -7657,7 +7663,7 @@
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7680,7 +7686,7 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7703,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7726,7 +7732,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7749,7 +7755,7 @@
         <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7772,7 +7778,7 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7795,7 +7801,7 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7841,7 +7847,7 @@
         <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7864,7 +7870,7 @@
         <v>43</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7887,7 +7893,7 @@
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7910,7 +7916,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7933,7 +7939,7 @@
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7956,7 +7962,7 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7979,7 +7985,7 @@
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8002,7 +8008,7 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8025,7 +8031,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8048,7 +8054,7 @@
         <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8071,7 +8077,7 @@
         <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8091,10 +8097,10 @@
         <v>11.33</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -8117,7 +8123,7 @@
         <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8140,7 +8146,7 @@
         <v>25</v>
       </c>
       <c r="G33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8163,7 +8169,7 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8186,7 +8192,7 @@
         <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8209,7 +8215,7 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8232,7 +8238,7 @@
         <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8252,10 +8258,10 @@
         <v>16.27</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8278,7 +8284,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8301,7 +8307,7 @@
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8324,7 +8330,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8347,7 +8353,7 @@
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8370,7 +8376,7 @@
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8393,7 +8399,7 @@
         <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8416,7 +8422,7 @@
         <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8439,7 +8445,7 @@
         <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8462,7 +8468,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8485,7 +8491,7 @@
         <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8508,7 +8514,7 @@
         <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8531,7 +8537,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8554,7 +8560,7 @@
         <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8577,7 +8583,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8600,7 +8606,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8623,30 +8629,30 @@
         <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="liked" sheetId="1" r:id="rId1"/>
     <sheet name="Play" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">liked!$A$1:$L$54</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
   <pivotCaches>
-    <pivotCache cacheId="44" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="88">
   <si>
     <t>Security_Code</t>
   </si>
@@ -235,6 +238,54 @@
   <si>
     <t>Software company has inventory. Need further investigation</t>
   </si>
+  <si>
+    <t>Ignore as of now [10-11-2015]</t>
+  </si>
+  <si>
+    <t>High receivables</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Debt increasing</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Pan masala company</t>
+  </si>
+  <si>
+    <t>BPO/KPO</t>
+  </si>
+  <si>
+    <t>High PE - 28 [10-11-2015]</t>
+  </si>
+  <si>
+    <t>looks good. Need detailed analysis</t>
+  </si>
+  <si>
+    <t>Personal Products</t>
+  </si>
+  <si>
+    <t>Acquirer</t>
+  </si>
+  <si>
+    <t>Cyclical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> premco-global-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mindteck-(india)-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sandesh-ltd</t>
+  </si>
+  <si>
+    <t>Gujarati Newspaper</t>
+  </si>
 </sst>
 </file>
 
@@ -321,11 +372,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42317.790241319446" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="171">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="42318.59720729167" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="171">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K1048576" sheet="liked"/>
+    <worksheetSource ref="A1:L1048576" sheet="liked" r:id="rId2"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="12">
     <cacheField name="Sr. No." numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="53"/>
     </cacheField>
@@ -651,10 +702,26 @@
     <cacheField name="PE" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
+    <cacheField name="Comment" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Pan masala company"/>
+        <s v="BPO/KPO"/>
+        <m/>
+        <s v="Personal Products"/>
+        <s v="looks good. Need detailed analysis"/>
+        <s v="Cyclical"/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="Red flags" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="11">
         <m/>
+        <s v="High PE - 28 [10-11-2015]"/>
         <s v="Very high trade receivables"/>
+        <s v="Ignore as of now [10-11-2015]"/>
+        <s v="Acquirer"/>
+        <s v="OK"/>
+        <s v="High receivables"/>
+        <s v="Debt increasing"/>
         <s v="Software company has inventory. Need further investigation"/>
         <s v="High trade receivables"/>
         <s v="Software company has inventory :)" u="1"/>
@@ -683,6 +750,7 @@
     <m/>
     <m/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="2"/>
@@ -695,7 +763,8 @@
     <x v="1"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
@@ -708,7 +777,8 @@
     <x v="2"/>
     <m/>
     <m/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="4"/>
@@ -721,6 +791,7 @@
     <x v="3"/>
     <m/>
     <m/>
+    <x v="3"/>
     <x v="0"/>
   </r>
   <r>
@@ -734,6 +805,7 @@
     <x v="4"/>
     <s v="*"/>
     <m/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
@@ -747,7 +819,8 @@
     <x v="5"/>
     <s v="*"/>
     <m/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
   </r>
   <r>
     <n v="7"/>
@@ -760,7 +833,8 @@
     <x v="6"/>
     <s v="*"/>
     <m/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
   </r>
   <r>
     <n v="8"/>
@@ -773,6 +847,7 @@
     <x v="7"/>
     <s v="*"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -786,6 +861,7 @@
     <x v="8"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -799,6 +875,7 @@
     <x v="9"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -812,6 +889,7 @@
     <x v="10"/>
     <s v="*"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -825,6 +903,7 @@
     <x v="11"/>
     <s v="*"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -838,6 +917,7 @@
     <x v="12"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -851,7 +931,8 @@
     <x v="13"/>
     <s v="*"/>
     <m/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
   </r>
   <r>
     <n v="15"/>
@@ -864,6 +945,7 @@
     <x v="14"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -877,6 +959,7 @@
     <x v="15"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -890,7 +973,8 @@
     <x v="16"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
   </r>
   <r>
     <n v="18"/>
@@ -903,6 +987,7 @@
     <x v="17"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -916,6 +1001,7 @@
     <x v="18"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -929,6 +1015,7 @@
     <x v="19"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -942,6 +1029,7 @@
     <x v="20"/>
     <s v="*"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -955,6 +1043,7 @@
     <x v="21"/>
     <s v="**"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -968,6 +1057,7 @@
     <x v="22"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -981,6 +1071,7 @@
     <x v="23"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -994,6 +1085,7 @@
     <x v="24"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1007,6 +1099,7 @@
     <x v="25"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1020,6 +1113,7 @@
     <x v="26"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1033,6 +1127,7 @@
     <x v="27"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1046,6 +1141,7 @@
     <x v="28"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1059,6 +1155,7 @@
     <x v="29"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1072,6 +1169,7 @@
     <x v="30"/>
     <s v="***"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1085,6 +1183,7 @@
     <x v="31"/>
     <s v="*"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1098,6 +1197,7 @@
     <x v="32"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1111,6 +1211,7 @@
     <x v="33"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1124,6 +1225,7 @@
     <x v="34"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1137,6 +1239,7 @@
     <x v="35"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1150,6 +1253,7 @@
     <x v="36"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1163,6 +1267,7 @@
     <x v="37"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1176,6 +1281,7 @@
     <x v="38"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1189,6 +1295,7 @@
     <x v="39"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1202,6 +1309,7 @@
     <x v="40"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1215,6 +1323,7 @@
     <x v="41"/>
     <m/>
     <m/>
+    <x v="5"/>
     <x v="0"/>
   </r>
   <r>
@@ -1228,6 +1337,7 @@
     <x v="42"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1241,7 +1351,8 @@
     <x v="43"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="7"/>
   </r>
   <r>
     <n v="45"/>
@@ -1254,6 +1365,7 @@
     <x v="44"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1267,6 +1379,7 @@
     <x v="3"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1280,6 +1393,7 @@
     <x v="45"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1293,6 +1407,7 @@
     <x v="46"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1307,6 +1422,7 @@
     <s v="*"/>
     <m/>
     <x v="2"/>
+    <x v="8"/>
   </r>
   <r>
     <n v="50"/>
@@ -1319,6 +1435,7 @@
     <x v="48"/>
     <s v="****"/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1332,6 +1449,7 @@
     <x v="49"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1345,6 +1463,7 @@
     <x v="50"/>
     <m/>
     <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -1358,1549 +1477,1668 @@
     <x v="51"/>
     <m/>
     <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="53"/>
-    <x v="28"/>
-    <x v="48"/>
-    <x v="49"/>
-    <x v="52"/>
-    <x v="52"/>
-    <m/>
-    <m/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="53"/>
+    <x v="28"/>
+    <x v="48"/>
+    <x v="49"/>
+    <x v="52"/>
+    <x v="52"/>
+    <m/>
+    <m/>
+    <x v="2"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A1:G55" firstHeaderRow="1" firstDataRow="1" firstDataCol="7"/>
-  <pivotFields count="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A1:H55" firstHeaderRow="1" firstDataRow="1" firstDataCol="8"/>
+  <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -3219,22 +3457,39 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
+      <items count="6">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
         <item x="3"/>
-        <item m="1" x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="11">
+        <item x="9"/>
+        <item m="1" x="10"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
+        <item x="4"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="7">
+  <rowFields count="8">
     <field x="2"/>
     <field x="3"/>
     <field x="4"/>
     <field x="5"/>
     <field x="6"/>
     <field x="7"/>
+    <field x="11"/>
     <field x="10"/>
   </rowFields>
   <rowItems count="54">
@@ -3246,6 +3501,7 @@
       <x v="10"/>
       <x v="24"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="1"/>
@@ -3255,6 +3511,7 @@
       <x v="18"/>
       <x v="32"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="2"/>
@@ -3264,6 +3521,7 @@
       <x v="5"/>
       <x v="5"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="3"/>
@@ -3272,6 +3530,7 @@
       <x v="28"/>
       <x v="7"/>
       <x v="7"/>
+      <x v="4"/>
       <x v="4"/>
     </i>
     <i>
@@ -3282,6 +3541,7 @@
       <x v="24"/>
       <x v="41"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
@@ -3291,6 +3551,7 @@
       <x v="16"/>
       <x v="38"/>
       <x/>
+      <x v="4"/>
     </i>
     <i>
       <x v="6"/>
@@ -3300,6 +3561,7 @@
       <x v="25"/>
       <x v="50"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="7"/>
@@ -3309,6 +3571,7 @@
       <x v="12"/>
       <x v="2"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="8"/>
@@ -3317,7 +3580,8 @@
       <x v="29"/>
       <x v="42"/>
       <x v="31"/>
-      <x v="3"/>
+      <x v="8"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="9"/>
@@ -3327,6 +3591,7 @@
       <x v="29"/>
       <x v="36"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="10"/>
@@ -3336,6 +3601,7 @@
       <x v="8"/>
       <x v="14"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="11"/>
@@ -3345,6 +3611,7 @@
       <x v="9"/>
       <x v="20"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="12"/>
@@ -3354,6 +3621,7 @@
       <x v="1"/>
       <x v="47"/>
       <x v="3"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="13"/>
@@ -3363,6 +3631,7 @@
       <x v="22"/>
       <x v="21"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="14"/>
@@ -3372,6 +3641,7 @@
       <x v="15"/>
       <x v="10"/>
       <x v="3"/>
+      <x v="5"/>
     </i>
     <i>
       <x v="15"/>
@@ -3380,7 +3650,8 @@
       <x v="37"/>
       <x v="27"/>
       <x v="33"/>
-      <x v="3"/>
+      <x v="9"/>
+      <x/>
     </i>
     <i>
       <x v="16"/>
@@ -3390,6 +3661,7 @@
       <x v="33"/>
       <x v="37"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="17"/>
@@ -3399,6 +3671,7 @@
       <x v="35"/>
       <x v="45"/>
       <x v="2"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="18"/>
@@ -3408,6 +3681,7 @@
       <x v="44"/>
       <x v="15"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="19"/>
@@ -3417,6 +3691,7 @@
       <x v="4"/>
       <x v="49"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="20"/>
@@ -3426,6 +3701,7 @@
       <x v="17"/>
       <x v="46"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="21"/>
@@ -3434,6 +3710,7 @@
       <x v="46"/>
       <x v="21"/>
       <x v="8"/>
+      <x v="3"/>
       <x v="3"/>
     </i>
     <i>
@@ -3444,6 +3721,7 @@
       <x v="23"/>
       <x v="28"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="23"/>
@@ -3452,7 +3730,8 @@
       <x v="36"/>
       <x v="36"/>
       <x/>
-      <x v="3"/>
+      <x v="7"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="24"/>
@@ -3462,6 +3741,7 @@
       <x v="34"/>
       <x v="30"/>
       <x v="3"/>
+      <x v="1"/>
     </i>
     <i>
       <x v="25"/>
@@ -3470,7 +3750,8 @@
       <x v="48"/>
       <x v="3"/>
       <x v="4"/>
-      <x v="3"/>
+      <x v="5"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="26"/>
@@ -3480,6 +3761,7 @@
       <x v="21"/>
       <x v="8"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="27"/>
@@ -3489,6 +3771,7 @@
       <x v="37"/>
       <x v="6"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="28"/>
@@ -3498,6 +3781,7 @@
       <x v="48"/>
       <x v="42"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="29"/>
@@ -3507,6 +3791,7 @@
       <x v="20"/>
       <x v="9"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="30"/>
@@ -3516,6 +3801,7 @@
       <x v="6"/>
       <x v="18"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="31"/>
@@ -3525,6 +3811,7 @@
       <x v="19"/>
       <x v="35"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="32"/>
@@ -3533,7 +3820,8 @@
       <x v="7"/>
       <x v="2"/>
       <x v="27"/>
-      <x v="3"/>
+      <x v="10"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="33"/>
@@ -3543,6 +3831,7 @@
       <x v="40"/>
       <x v="16"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="34"/>
@@ -3552,6 +3841,7 @@
       <x v="14"/>
       <x v="48"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="35"/>
@@ -3561,6 +3851,7 @@
       <x v="13"/>
       <x v="1"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="36"/>
@@ -3570,6 +3861,7 @@
       <x v="26"/>
       <x v="22"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="37"/>
@@ -3579,6 +3871,7 @@
       <x v="43"/>
       <x v="13"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="38"/>
@@ -3588,6 +3881,7 @@
       <x v="31"/>
       <x v="23"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="39"/>
@@ -3597,6 +3891,7 @@
       <x/>
       <x v="44"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="40"/>
@@ -3606,6 +3901,7 @@
       <x v="32"/>
       <x v="25"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="41"/>
@@ -3615,6 +3911,7 @@
       <x v="28"/>
       <x v="29"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="42"/>
@@ -3624,6 +3921,7 @@
       <x v="46"/>
       <x v="17"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="43"/>
@@ -3632,7 +3930,8 @@
       <x v="41"/>
       <x v="45"/>
       <x v="51"/>
-      <x v="3"/>
+      <x v="6"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="44"/>
@@ -3642,6 +3941,7 @@
       <x v="39"/>
       <x v="19"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="45"/>
@@ -3651,6 +3951,7 @@
       <x v="49"/>
       <x v="12"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="46"/>
@@ -3660,6 +3961,7 @@
       <x v="41"/>
       <x v="26"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="47"/>
@@ -3669,6 +3971,7 @@
       <x v="30"/>
       <x v="43"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="48"/>
@@ -3678,6 +3981,7 @@
       <x v="38"/>
       <x v="34"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="49"/>
@@ -3687,6 +3991,7 @@
       <x v="51"/>
       <x v="39"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="50"/>
@@ -3696,6 +4001,7 @@
       <x v="11"/>
       <x v="40"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="51"/>
@@ -3705,6 +4011,7 @@
       <x v="47"/>
       <x v="3"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="52"/>
@@ -3714,6 +4021,7 @@
       <x v="50"/>
       <x v="11"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
     <i>
       <x v="54"/>
@@ -3723,6 +4031,7 @@
       <x v="52"/>
       <x v="52"/>
       <x v="3"/>
+      <x v="4"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -4024,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K171"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,10 +4349,11 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
@@ -4075,10 +4385,13 @@
         <v>58</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4105,9 +4418,12 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4134,9 +4450,14 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4163,11 +4484,12 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4194,9 +4516,12 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4225,9 +4550,12 @@
         <v>29</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4257,8 +4585,11 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4288,8 +4619,11 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4319,8 +4653,9 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4348,8 +4683,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4377,8 +4713,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4408,8 +4745,9 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4439,8 +4777,9 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4468,8 +4807,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4499,8 +4839,11 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4528,8 +4871,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4557,8 +4901,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4586,8 +4931,11 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4615,8 +4963,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4644,8 +4993,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4673,8 +5023,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4704,8 +5055,9 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4735,8 +5087,9 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4764,8 +5117,9 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4793,8 +5147,9 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4822,8 +5177,9 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4851,8 +5207,9 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4880,8 +5237,9 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4909,8 +5267,9 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4938,8 +5297,9 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4967,8 +5327,9 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4998,8 +5359,9 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5029,8 +5391,9 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5058,8 +5421,9 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5087,8 +5451,9 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5116,8 +5481,9 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5145,8 +5511,9 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5174,8 +5541,9 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5203,8 +5571,9 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5232,8 +5601,9 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5261,8 +5631,9 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5290,8 +5661,9 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5318,9 +5690,12 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5348,8 +5723,9 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5377,8 +5753,11 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5406,8 +5785,9 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5435,8 +5815,9 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5464,8 +5845,9 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5493,8 +5875,9 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5523,11 +5906,12 @@
         <v>29</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5557,8 +5941,9 @@
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5586,8 +5971,9 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5615,8 +6001,9 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5643,50 +6030,106 @@
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>530331</v>
+      </c>
+      <c r="C55" s="2">
+        <v>246.22</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E55" s="2">
+        <v>47</v>
+      </c>
+      <c r="F55" s="2">
+        <v>30.74</v>
+      </c>
+      <c r="G55" s="2">
+        <v>60.69</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>517344</v>
+      </c>
+      <c r="C56" s="2">
+        <v>313.36</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="2">
+        <v>10.66</v>
+      </c>
+      <c r="F56" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="G56" s="2">
+        <v>7.44</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>526725</v>
+      </c>
+      <c r="C57" s="2">
+        <v>603.28</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E57" s="2">
+        <v>19.45</v>
+      </c>
+      <c r="F57" s="2">
+        <v>12.58</v>
+      </c>
+      <c r="G57" s="2">
+        <v>127.81</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5698,8 +6141,9 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5711,8 +6155,9 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5724,8 +6169,9 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5737,8 +6183,9 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5750,8 +6197,9 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5763,8 +6211,9 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63" s="1"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5776,8 +6225,9 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5789,8 +6239,9 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5802,8 +6253,9 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5815,8 +6267,9 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5828,8 +6281,9 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5841,8 +6295,9 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5854,8 +6309,9 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5867,8 +6323,9 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5880,8 +6337,9 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5893,8 +6351,9 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5906,8 +6365,9 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5919,8 +6379,9 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5932,8 +6393,9 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5945,8 +6407,9 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5958,8 +6421,9 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5971,8 +6435,9 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5984,8 +6449,9 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5997,8 +6463,9 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6010,8 +6477,9 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6023,8 +6491,9 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6036,8 +6505,9 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6049,8 +6519,9 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6062,8 +6533,9 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6075,8 +6547,9 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6088,8 +6561,9 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6101,8 +6575,9 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6114,8 +6589,9 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6127,8 +6603,9 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6140,8 +6617,9 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92" s="1"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6153,8 +6631,9 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6166,8 +6645,9 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6179,8 +6659,9 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6192,8 +6673,9 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6205,8 +6687,9 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97" s="1"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6218,8 +6701,9 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6231,8 +6715,9 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6244,8 +6729,9 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6257,8 +6743,9 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6270,8 +6757,9 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6283,8 +6771,9 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6296,8 +6785,9 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104" s="1"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6309,8 +6799,9 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6322,8 +6813,9 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106" s="1"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6335,8 +6827,9 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6348,8 +6841,9 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6361,8 +6855,9 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6374,8 +6869,9 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -6387,8 +6883,9 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -6400,8 +6897,9 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112" s="1"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6413,8 +6911,9 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6426,8 +6925,9 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -6439,8 +6939,9 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115" s="1"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -6452,8 +6953,9 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6465,8 +6967,9 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -6478,8 +6981,9 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -6491,8 +6995,9 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119" s="1"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -6504,8 +7009,9 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6517,8 +7023,9 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6530,8 +7037,9 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -6543,8 +7051,9 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6556,8 +7065,9 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -6569,8 +7079,9 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6582,8 +7093,9 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126" s="1"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6595,8 +7107,9 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6608,8 +7121,9 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -6621,8 +7135,9 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -6634,8 +7149,9 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -6647,8 +7163,9 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6660,8 +7177,9 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6673,8 +7191,9 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6686,8 +7205,9 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6699,8 +7219,9 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6712,8 +7233,9 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6725,8 +7247,9 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6738,8 +7261,9 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138" s="1"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6751,8 +7275,9 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6764,8 +7289,9 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6777,8 +7303,9 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6790,8 +7317,9 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6803,8 +7331,9 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6816,8 +7345,9 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="1"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6829,8 +7359,9 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6842,8 +7373,9 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6855,8 +7387,9 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147" s="1"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6868,8 +7401,9 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148" s="1"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6881,8 +7415,9 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149" s="1"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6894,8 +7429,9 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150" s="1"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6907,8 +7443,9 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151" s="1"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6920,8 +7457,9 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152" s="1"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6933,8 +7471,9 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153" s="1"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6946,8 +7485,9 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154" s="1"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6959,8 +7499,9 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="1"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6972,8 +7513,9 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6985,8 +7527,9 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6998,8 +7541,9 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -7011,8 +7555,9 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -7024,8 +7569,9 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -7037,8 +7583,9 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -7050,8 +7597,9 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -7063,8 +7611,9 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7076,8 +7625,9 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7089,8 +7639,9 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7102,8 +7653,9 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7115,8 +7667,9 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7128,8 +7681,9 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7141,8 +7695,9 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7154,8 +7709,9 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7167,6 +7723,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7175,10 +7732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F22" sqref="C22:F22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7189,8 +7746,9 @@
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.140625" customWidth="1"/>
-    <col min="7" max="7" width="56" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
@@ -7390,7 +7948,7 @@
     <col min="266" max="266" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7412,8 +7970,11 @@
       <c r="G1" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11.56</v>
       </c>
@@ -7435,8 +7996,11 @@
       <c r="G2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13.18</v>
       </c>
@@ -7458,8 +8022,11 @@
       <c r="G3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>19.23</v>
       </c>
@@ -7481,8 +8048,11 @@
       <c r="G4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>19.690000000000001</v>
       </c>
@@ -7504,8 +8074,11 @@
       <c r="G5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>34.090000000000003</v>
       </c>
@@ -7527,8 +8100,11 @@
       <c r="G6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39.950000000000003</v>
       </c>
@@ -7550,8 +8126,11 @@
       <c r="G7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>42.87</v>
       </c>
@@ -7573,8 +8152,11 @@
       <c r="G8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>47.21</v>
       </c>
@@ -7596,8 +8178,11 @@
       <c r="G9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>51.98</v>
       </c>
@@ -7617,10 +8202,13 @@
         <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>71.56</v>
       </c>
@@ -7642,8 +8230,11 @@
       <c r="G11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>72.7</v>
       </c>
@@ -7665,8 +8256,11 @@
       <c r="G12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95.53</v>
       </c>
@@ -7688,8 +8282,11 @@
       <c r="G13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>124.18</v>
       </c>
@@ -7711,8 +8308,11 @@
       <c r="G14" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>125.32</v>
       </c>
@@ -7734,8 +8334,11 @@
       <c r="G15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>130.93</v>
       </c>
@@ -7757,8 +8360,11 @@
       <c r="G16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>149.08000000000001</v>
       </c>
@@ -7778,10 +8384,13 @@
         <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>153.21</v>
       </c>
@@ -7803,8 +8412,11 @@
       <c r="G18" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>155.41999999999999</v>
       </c>
@@ -7826,8 +8438,11 @@
       <c r="G19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>171.92</v>
       </c>
@@ -7849,8 +8464,11 @@
       <c r="G20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>218.5</v>
       </c>
@@ -7872,8 +8490,11 @@
       <c r="G21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>272.26</v>
       </c>
@@ -7895,8 +8516,11 @@
       <c r="G22" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>272.43</v>
       </c>
@@ -7918,8 +8542,11 @@
       <c r="G23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>275.49</v>
       </c>
@@ -7941,8 +8568,11 @@
       <c r="G24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>277.33</v>
       </c>
@@ -7962,10 +8592,13 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="H25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>281.60000000000002</v>
       </c>
@@ -7987,8 +8620,11 @@
       <c r="G26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>285.04000000000002</v>
       </c>
@@ -8008,10 +8644,13 @@
         <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>302.88</v>
       </c>
@@ -8033,8 +8672,11 @@
       <c r="G28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>389.1</v>
       </c>
@@ -8056,8 +8698,11 @@
       <c r="G29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>405.08</v>
       </c>
@@ -8079,8 +8724,11 @@
       <c r="G30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>406.61</v>
       </c>
@@ -8102,8 +8750,11 @@
       <c r="G31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>537.29</v>
       </c>
@@ -8125,8 +8776,11 @@
       <c r="G32" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>576.21</v>
       </c>
@@ -8148,8 +8802,11 @@
       <c r="G33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>592.22</v>
       </c>
@@ -8169,10 +8826,13 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="H34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>612.6</v>
       </c>
@@ -8194,8 +8854,11 @@
       <c r="G35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>637.73</v>
       </c>
@@ -8217,8 +8880,11 @@
       <c r="G36" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>762.86</v>
       </c>
@@ -8240,8 +8906,11 @@
       <c r="G37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>867.75</v>
       </c>
@@ -8263,8 +8932,11 @@
       <c r="G38" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1138.81</v>
       </c>
@@ -8286,8 +8958,11 @@
       <c r="G39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2098.33</v>
       </c>
@@ -8309,8 +8984,11 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2394.14</v>
       </c>
@@ -8332,8 +9010,11 @@
       <c r="G41" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2550.96</v>
       </c>
@@ -8355,8 +9036,11 @@
       <c r="G42" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3491.31</v>
       </c>
@@ -8378,8 +9062,11 @@
       <c r="G43" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3678.31</v>
       </c>
@@ -8401,8 +9088,11 @@
       <c r="G44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4384.41</v>
       </c>
@@ -8422,10 +9112,13 @@
         <v>21</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4495.51</v>
       </c>
@@ -8447,8 +9140,11 @@
       <c r="G46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5649.96</v>
       </c>
@@ -8470,8 +9166,11 @@
       <c r="G47" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6922.94</v>
       </c>
@@ -8493,8 +9192,11 @@
       <c r="G48" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7894.43</v>
       </c>
@@ -8516,8 +9218,11 @@
       <c r="G49" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8786.19</v>
       </c>
@@ -8539,8 +9244,11 @@
       <c r="G50" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10471.280000000001</v>
       </c>
@@ -8562,8 +9270,11 @@
       <c r="G51" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11623.92</v>
       </c>
@@ -8585,8 +9296,11 @@
       <c r="G52" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>44072.12</v>
       </c>
@@ -8608,8 +9322,11 @@
       <c r="G53" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>73881.03</v>
       </c>
@@ -8631,8 +9348,11 @@
       <c r="G54" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -8652,6 +9372,9 @@
         <v>69</v>
       </c>
       <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
         <v>69</v>
       </c>
     </row>

--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="90">
   <si>
     <t>Security_Code</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>Gujarati Newspaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> atishay-infotech-ltd</t>
+  </si>
+  <si>
+    <t>Government Projects</t>
   </si>
 </sst>
 </file>
@@ -4335,8 +4341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6130,49 +6136,100 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>522295</v>
+      </c>
+      <c r="C58" s="1">
+        <v>434.5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E58" s="1">
+        <v>24.23</v>
+      </c>
+      <c r="F58" s="1">
+        <v>18.95</v>
+      </c>
+      <c r="G58" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>517080</v>
+      </c>
+      <c r="C59" s="1">
+        <v>881.94</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E59" s="1">
+        <v>23.87</v>
+      </c>
+      <c r="F59" s="1">
+        <v>15.41</v>
+      </c>
+      <c r="G59" s="1">
+        <v>16.27</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>538713</v>
+      </c>
+      <c r="C60" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E60" s="1">
+        <v>22.56</v>
+      </c>
+      <c r="F60" s="1">
+        <v>16.73</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>

--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="109">
   <si>
     <t>Security_Code</t>
   </si>
@@ -291,6 +291,63 @@
   </si>
   <si>
     <t>Government Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wonderla-holidays-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> savera-industries-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ptl-enterprises-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arihant-superstructures-limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mazda-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jaysynth-dyestuff-(india)-ltd</t>
+  </si>
+  <si>
+    <t>high receivable and high inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> valson-industries-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> arex-industries-ltd</t>
+  </si>
+  <si>
+    <t>margins are declining</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brawn-biotech-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> snl-bearings-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sambhaav-media-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gulshan-polyols-ltd</t>
+  </si>
+  <si>
+    <t>sales are not growing</t>
+  </si>
+  <si>
+    <t>low margins as compared to other services firms</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rajoo-engineers-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sqs-india-bfsi-limited</t>
   </si>
 </sst>
 </file>
@@ -326,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,17 +406,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4339,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D76" activeCellId="1" sqref="B81:H81 D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4356,7 +4430,8 @@
     <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -5853,7 +5928,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5883,7 +5958,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5917,7 +5992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5949,7 +6024,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5979,7 +6054,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6009,7 +6084,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6041,7 +6116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6071,7 +6146,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6101,7 +6176,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6135,7 +6210,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6165,7 +6240,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6193,9 +6268,11 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6226,304 +6303,667 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="B61" s="1">
+        <v>500674</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10622.36</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="1">
+        <v>20.67</v>
+      </c>
+      <c r="F61" s="1">
+        <v>17.78</v>
+      </c>
+      <c r="G61" s="1">
+        <v>147.13999999999999</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="M61" s="6">
+        <v>42320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>538713</v>
+      </c>
+      <c r="C62" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E62" s="1">
+        <v>22.56</v>
+      </c>
+      <c r="F62" s="1">
+        <v>16.73</v>
+      </c>
+      <c r="G62" s="1">
+        <v>5.36</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>538268</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2037.98</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E63" s="1">
+        <v>20.3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>14.26</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="M63" s="7">
+        <v>42321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>512634</v>
+      </c>
+      <c r="C64" s="1">
+        <v>79.92</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="E64" s="1">
+        <v>12.88</v>
+      </c>
+      <c r="F64" s="1">
+        <v>7.69</v>
+      </c>
+      <c r="G64" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>532890</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2351.92</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="M65" s="7">
+        <v>42324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>509220</v>
+      </c>
+      <c r="C66" s="1">
+        <v>580.79999999999995</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E66" s="1">
+        <v>26.42</v>
+      </c>
+      <c r="F66" s="1">
+        <v>17.03</v>
+      </c>
+      <c r="G66" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>506194</v>
+      </c>
+      <c r="C67" s="1">
+        <v>217.74</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>16.66</v>
+      </c>
+      <c r="F67" s="1">
+        <v>13.13</v>
+      </c>
+      <c r="G67" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>523792</v>
+      </c>
+      <c r="C68" s="1">
+        <v>141.91999999999999</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E68" s="1">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="F68" s="1">
+        <v>12.35</v>
+      </c>
+      <c r="G68" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>506910</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44.23</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="F69" s="1">
+        <v>8.77</v>
+      </c>
+      <c r="G69" s="1">
+        <v>9.43</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="L69" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>530459</v>
+      </c>
+      <c r="C70" s="1">
+        <v>24.59</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E70" s="1">
+        <v>13.39</v>
+      </c>
+      <c r="F70" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="G70" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>526851</v>
+      </c>
+      <c r="C71" s="1">
+        <v>18.82</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E71" s="1">
+        <v>21.44</v>
+      </c>
+      <c r="F71" s="1">
+        <v>16.04</v>
+      </c>
+      <c r="G71" s="1">
+        <v>19.75</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="L71" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>530207</v>
+      </c>
+      <c r="C72" s="1">
+        <v>12.69</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E72" s="1">
+        <v>11.54</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>530459</v>
+      </c>
+      <c r="C73" s="1">
+        <v>25.7</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E73" s="1">
+        <v>13.39</v>
+      </c>
+      <c r="F73" s="1">
+        <v>9.02</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.79</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="M73" s="7">
+        <v>42325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>505827</v>
+      </c>
+      <c r="C74" s="1">
+        <v>55.26</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="E74" s="1">
+        <v>48.72</v>
+      </c>
+      <c r="F74" s="1">
+        <v>20.58</v>
+      </c>
+      <c r="G74" s="1">
+        <v>20.97</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="L74" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>511630</v>
+      </c>
+      <c r="C75" s="1">
+        <v>77</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E75" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="F75" s="1">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="8">
+        <v>532457</v>
+      </c>
+      <c r="C76" s="1">
+        <v>355.87</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="E76" s="1">
+        <v>11.97</v>
+      </c>
+      <c r="F76" s="1">
+        <v>12.36</v>
+      </c>
+      <c r="G76" s="1">
+        <v>60.82</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8">
+        <v>500163</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6596.99</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="E77" s="1">
+        <v>19.37</v>
+      </c>
+      <c r="F77" s="1">
+        <v>14.16</v>
+      </c>
+      <c r="G77" s="1">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8">
+        <v>532531</v>
+      </c>
+      <c r="C78" s="1">
+        <v>8223.57</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E78" s="1">
+        <v>10.26</v>
+      </c>
+      <c r="F78" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>22.46</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>504067</v>
+      </c>
+      <c r="C79" s="1">
+        <v>4615.21</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="1">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="F79" s="1">
+        <v>23.76</v>
+      </c>
+      <c r="G79" s="1">
+        <v>60.14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="L79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M79" s="7">
+        <v>42326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9">
+        <v>522257</v>
+      </c>
+      <c r="C80" s="9">
+        <v>126.51</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E80" s="9">
+        <v>20.82</v>
+      </c>
+      <c r="F80" s="9">
+        <v>15.42</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
+      <c r="M80" s="7">
+        <v>42327</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>533121</v>
+      </c>
+      <c r="C81">
+        <v>878.21</v>
+      </c>
+      <c r="D81">
+        <v>0.09</v>
+      </c>
+      <c r="E81">
+        <v>32.19</v>
+      </c>
+      <c r="F81">
+        <v>21.78</v>
+      </c>
+      <c r="G81">
+        <v>31.47</v>
+      </c>
+      <c r="H81" t="s">
+        <v>108</v>
+      </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -6537,7 +6977,9 @@
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6551,7 +6993,9 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6565,7 +7009,9 @@
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6579,7 +7025,9 @@
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6593,7 +7041,9 @@
       <c r="L86" s="1"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6607,7 +7057,9 @@
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6621,7 +7073,9 @@
       <c r="L88" s="1"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6635,7 +7089,9 @@
       <c r="L89" s="1"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6649,7 +7105,9 @@
       <c r="L90" s="1"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6663,7 +7121,9 @@
       <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6677,7 +7137,9 @@
       <c r="L92" s="1"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6691,7 +7153,9 @@
       <c r="L93" s="1"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6705,7 +7169,9 @@
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6719,7 +7185,9 @@
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6733,7 +7201,9 @@
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -6747,7 +7217,9 @@
       <c r="L97" s="1"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -6761,7 +7233,9 @@
       <c r="L98" s="1"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -6775,7 +7249,9 @@
       <c r="L99" s="1"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -6789,7 +7265,9 @@
       <c r="L100" s="1"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>

--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="liked" sheetId="1" r:id="rId1"/>
-    <sheet name="Play" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Play" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">liked!$A$1:$L$54</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="120">
   <si>
     <t>Security_Code</t>
   </si>
@@ -348,6 +349,39 @@
   </si>
   <si>
     <t xml:space="preserve"> sqs-india-bfsi-limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maruti-suzuki-india-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vakrangee-limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> petronet-lng-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ion-exchange-(india)-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cheviot-coltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> star-paper-mills-ltd</t>
+  </si>
+  <si>
+    <t>Very high return in invested cap. Something wonderful here</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> apm-industries-ltd</t>
+  </si>
+  <si>
+    <t>Textile</t>
+  </si>
+  <si>
+    <t>caplinpoint</t>
   </si>
 </sst>
 </file>
@@ -363,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +416,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -406,24 +446,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -432,8 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4415,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D76" activeCellId="1" sqref="B81:H81 D76"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,38 +4629,38 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>523828</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>281.60000000000002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>0.39</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>32.049999999999997</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>27.05</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="8">
         <v>24.13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -5139,36 +5165,36 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="8">
         <v>516064</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="8">
         <v>762.86</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="8">
         <v>7.75</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -5201,34 +5227,34 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="8">
         <v>533217</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="8">
         <v>2098.33</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="8">
         <v>0.13</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="8">
         <v>23.72</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="8">
         <v>19.059999999999999</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <v>22.68</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5621,7 +5647,9 @@
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -6177,38 +6205,38 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="8">
         <v>526725</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="8">
         <v>603.28</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="8">
         <v>0.02</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="8">
         <v>19.45</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="8">
         <v>12.58</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="8">
         <v>127.81</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1" t="s">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="1"/>
+      <c r="L57" s="8"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -6776,7 +6804,7 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="1">
         <v>532457</v>
       </c>
       <c r="C76" s="1">
@@ -6806,7 +6834,7 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="1">
         <v>500163</v>
       </c>
       <c r="C77" s="1">
@@ -6836,7 +6864,7 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="1">
         <v>532531</v>
       </c>
       <c r="C78" s="1">
@@ -6866,7 +6894,7 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>504067</v>
       </c>
       <c r="C79" s="1">
@@ -6901,25 +6929,25 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="4">
         <v>522257</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="4">
         <v>126.51</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="4">
         <v>0.12</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="4">
         <v>20.82</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="4">
         <v>15.42</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="4">
         <v>1.82</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I80" s="1"/>
@@ -6930,29 +6958,29 @@
         <v>42327</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>533121</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>878.21</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>0.09</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <v>32.19</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>21.78</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>31.47</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="1" t="s">
         <v>108</v>
       </c>
       <c r="I81" s="1"/>
@@ -6960,119 +6988,227 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="B82" s="1">
+        <v>532500</v>
+      </c>
+      <c r="C82" s="1">
+        <v>143099.85999999999</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E82" s="1">
+        <v>21.24</v>
+      </c>
+      <c r="F82" s="1">
+        <v>15.65</v>
+      </c>
+      <c r="G82" s="1">
+        <v>222.22</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82" s="7">
+        <v>42331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="B83" s="1">
+        <v>511431</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8341.2800000000007</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E83" s="1">
+        <v>35.89</v>
+      </c>
+      <c r="F83" s="1">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="G83" s="1">
+        <v>14.26</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="B84" s="1">
+        <v>532522</v>
+      </c>
+      <c r="C84" s="1">
+        <v>17501.25</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="E84" s="1">
+        <v>15.85</v>
+      </c>
+      <c r="F84" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="G84" s="1">
+        <v>19.190000000000001</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="B85" s="1">
+        <v>500214</v>
+      </c>
+      <c r="C85" s="1">
+        <v>466.63</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E85" s="1">
+        <v>18.36</v>
+      </c>
+      <c r="F85" s="1">
+        <v>11.86</v>
+      </c>
+      <c r="G85" s="1">
+        <v>34.729999999999997</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="B86" s="1">
+        <v>526817</v>
+      </c>
+      <c r="C86" s="1">
+        <v>426.76</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E86" s="1">
+        <v>13.88</v>
+      </c>
+      <c r="F86" s="1">
+        <v>11.92</v>
+      </c>
+      <c r="G86" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="B87" s="1">
+        <v>516022</v>
+      </c>
+      <c r="C87" s="1">
+        <v>54.08</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E87" s="1">
+        <v>19.61</v>
+      </c>
+      <c r="F87" s="1">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="G87" s="1">
+        <v>10.15</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L87" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="B88" s="1">
+        <v>523537</v>
+      </c>
+      <c r="C88" s="1">
+        <v>131.4</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E88" s="1">
+        <v>24.55</v>
+      </c>
+      <c r="F88" s="1">
+        <v>16.55</v>
+      </c>
+      <c r="G88" s="1">
+        <v>14.31</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
+      <c r="K88" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88" s="7">
+        <v>42332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7088,7 +7224,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7104,7 +7240,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7120,7 +7256,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7136,7 +7272,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7152,7 +7288,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7168,7 +7304,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7184,7 +7320,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -8266,6 +8402,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>

--- a/bse/data/bse_52_week_data/yogendra/liked.xlsx
+++ b/bse/data/bse_52_week_data/yogendra/liked.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="liked" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="130">
   <si>
     <t>Security_Code</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Very high return in invested cap. Something wonderful here</t>
   </si>
   <si>
-    <t>Pharma</t>
-  </si>
-  <si>
     <t xml:space="preserve"> apm-industries-ltd</t>
   </si>
   <si>
@@ -382,6 +379,39 @@
   </si>
   <si>
     <t>caplinpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> indag-rubber-ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aegis-logistics-ltd</t>
+  </si>
+  <si>
+    <t>Numbers are good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> alphageo-(india)-ltd</t>
+  </si>
+  <si>
+    <t>Oil Equipment &amp; Services</t>
+  </si>
+  <si>
+    <t>Crude prices are down hence Loss making as of today</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> albert-david-ltd</t>
+  </si>
+  <si>
+    <t>Pharma to read. OPM are low, is there a possiblity of higher OPM</t>
+  </si>
+  <si>
+    <t>Pharma. Good Numbers, only receivable at 30% of sales and 1.5 times the Net profit. OPM on upward tick</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trilogic-digital-media-ltd</t>
+  </si>
+  <si>
+    <t>Movies &amp; Entertainment - Need to be looked into urgently</t>
   </si>
 </sst>
 </file>
@@ -418,7 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4441,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,7 +4485,7 @@
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="56" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5648,7 +5678,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L38" s="1"/>
     </row>
@@ -6049,7 +6079,9 @@
         <v>70</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -6737,36 +6769,36 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="8">
         <v>505827</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="8">
         <v>55.26</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="8">
         <v>0.37</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="8">
         <v>48.72</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="8">
         <v>20.58</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="8">
         <v>20.97</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1" t="s">
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -7196,12 +7228,12 @@
         <v>14.31</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="7">
@@ -7209,32 +7241,63 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
+      <c r="B89" s="8">
+        <v>509162</v>
+      </c>
+      <c r="C89" s="8">
+        <v>598.5</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="8">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="F89" s="8">
+        <v>25.45</v>
+      </c>
+      <c r="G89" s="8">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="7">
+        <v>42338</v>
+      </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="B90">
+        <v>500003</v>
+      </c>
+      <c r="C90">
+        <v>3612.21</v>
+      </c>
+      <c r="D90">
+        <v>0.25</v>
+      </c>
+      <c r="E90">
+        <v>21.79</v>
+      </c>
+      <c r="F90">
+        <v>26.66</v>
+      </c>
+      <c r="G90">
+        <v>19.11</v>
+      </c>
+      <c r="H90" t="s">
+        <v>120</v>
+      </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -7244,80 +7307,160 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="B91" s="1">
+        <v>517080</v>
+      </c>
+      <c r="C91" s="1">
+        <v>940.23</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E91" s="1">
+        <v>23.87</v>
+      </c>
+      <c r="F91" s="1">
+        <v>15.41</v>
+      </c>
+      <c r="G91" s="1">
+        <v>16.27</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
+      <c r="B92" s="8">
+        <v>509220</v>
+      </c>
+      <c r="C92" s="8">
+        <v>597.02</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="E92" s="8">
+        <v>26.42</v>
+      </c>
+      <c r="F92" s="8">
+        <v>17.03</v>
+      </c>
+      <c r="G92" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L92" s="8"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="B93" s="1">
+        <v>526397</v>
+      </c>
+      <c r="C93" s="1">
+        <v>398.24</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E93" s="1">
+        <v>25.68</v>
+      </c>
+      <c r="F93" s="1">
+        <v>24.22</v>
+      </c>
+      <c r="G93" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
+      <c r="K93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="B94" s="1">
+        <v>524075</v>
+      </c>
+      <c r="C94" s="1">
+        <v>238.96</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E94" s="1">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="F94" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="G94" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
+      <c r="K94" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="L94" s="1"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="B95" s="1">
+        <v>531712</v>
+      </c>
+      <c r="C95" s="1">
+        <v>62.88</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E95" s="1">
+        <v>29.68</v>
+      </c>
+      <c r="F95" s="1">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="K95" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -8405,7 +8548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -8416,7 +8559,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
